--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3272,6 +3272,86 @@
         <v>16</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>40</v>
+      </c>
+      <c r="N37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T37" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44249</v>
+        <v>44425</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44236</v>
+        <v>44249</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44306</v>
+        <v>44236</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1375</v>
+        <v>1562</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44221</v>
+        <v>44306</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44280</v>
+        <v>44221</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>1389</v>
       </c>
       <c r="T11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44323</v>
+        <v>44280</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44258</v>
+        <v>44323</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44237</v>
+        <v>44258</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1562</v>
+        <v>889</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O15" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P15" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44321</v>
+        <v>44237</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44238</v>
+        <v>44273</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N17" t="n">
         <v>14000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44274</v>
+        <v>44321</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N19" t="n">
         <v>14000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44327</v>
+        <v>44274</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44330</v>
+        <v>44320</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1500</v>
+        <v>875</v>
       </c>
       <c r="T22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44315</v>
+        <v>44435</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P23" t="n">
-        <v>15619</v>
+        <v>45000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>976</v>
+        <v>2500</v>
       </c>
       <c r="T23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44389</v>
+        <v>44327</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1875</v>
+        <v>938</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44251</v>
+        <v>44330</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T25" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44294</v>
+        <v>44315</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
         <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>15619</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44277</v>
+        <v>44251</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N28" t="n">
         <v>16000</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44319</v>
+        <v>44294</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,13 +2684,13 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
         <v>15000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44253</v>
+        <v>44265</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
         <v>16000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44301</v>
+        <v>44277</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44301</v>
+        <v>44319</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1188</v>
+        <v>938</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44326</v>
+        <v>44253</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>55</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>625</v>
+        <v>1375</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O35" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P35" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>875</v>
+        <v>1188</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44284</v>
+        <v>44326</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1125</v>
+        <v>938</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44418</v>
+        <v>44270</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,10 +3346,330 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1875</v>
+        <v>625</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>25</v>
+      </c>
+      <c r="N38" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O38" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P38" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>875</v>
+      </c>
+      <c r="T38" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>25</v>
+      </c>
+      <c r="N39" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O39" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T39" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>40</v>
+      </c>
+      <c r="N40" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O40" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T40" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>30</v>
+      </c>
+      <c r="N41" t="n">
+        <v>45000</v>
+      </c>
+      <c r="O41" t="n">
+        <v>45000</v>
+      </c>
+      <c r="P41" t="n">
+        <v>45000</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T41" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44267</v>
+        <v>44326</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>15400</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>962</v>
+        <v>938</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44266</v>
+        <v>44327</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>18400</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1150</v>
+        <v>938</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44266</v>
+        <v>44280</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44266</v>
+        <v>44270</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N5" t="n">
         <v>10000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>44389</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1562</v>
+        <v>1875</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44425</v>
+        <v>44306</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>1375</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44249</v>
+        <v>44425</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44236</v>
+        <v>44266</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>18400</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1562</v>
+        <v>1150</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44306</v>
+        <v>44266</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44221</v>
+        <v>44266</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1389</v>
+        <v>625</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44280</v>
+        <v>44323</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44323</v>
+        <v>44418</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>875</v>
+        <v>1875</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44427</v>
+        <v>44284</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>1125</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
         <v>25000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44273</v>
+        <v>44330</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>875</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44238</v>
+        <v>44221</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>875</v>
+        <v>1389</v>
       </c>
       <c r="T19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44274</v>
+        <v>44265</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,11 +1960,11 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
         <v>16000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44274</v>
+        <v>44267</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>14000</v>
+        <v>15400</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>875</v>
+        <v>962</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44320</v>
+        <v>44277</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44435</v>
+        <v>44249</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N23" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44327</v>
+        <v>44235</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44330</v>
+        <v>44274</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2367,17 +2367,17 @@
         <v>35</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44315</v>
+        <v>44274</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P26" t="n">
-        <v>15619</v>
+        <v>14000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>976</v>
+        <v>875</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44389</v>
+        <v>44321</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1875</v>
+        <v>938</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44251</v>
+        <v>44253</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44294</v>
+        <v>44427</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44265</v>
+        <v>44301</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44277</v>
+        <v>44301</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>1188</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44319</v>
+        <v>44244</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44253</v>
+        <v>44237</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44301</v>
+        <v>44432</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1375</v>
+        <v>2500</v>
       </c>
       <c r="T34" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44301</v>
+        <v>44273</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N35" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P35" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1188</v>
+        <v>875</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44326</v>
+        <v>44294</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
         <v>15000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44270</v>
+        <v>44315</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>15619</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>625</v>
+        <v>976</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44244</v>
+        <v>44251</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O38" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44284</v>
+        <v>44435</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="O39" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="P39" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1125</v>
+        <v>2500</v>
       </c>
       <c r="T39" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44418</v>
+        <v>44319</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1875</v>
+        <v>938</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44432</v>
+        <v>44238</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N41" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="P41" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44326</v>
+        <v>44235</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44327</v>
+        <v>44432</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44280</v>
+        <v>44294</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44270</v>
+        <v>44315</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>15619</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>625</v>
+        <v>976</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44389</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1875</v>
+        <v>938</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44306</v>
+        <v>44236</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1375</v>
+        <v>1562</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44425</v>
+        <v>44258</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>889</v>
       </c>
       <c r="T8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44266</v>
+        <v>44330</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>18400</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1150</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44266</v>
+        <v>44435</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44266</v>
+        <v>44319</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44323</v>
+        <v>44238</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N12" t="n">
         <v>14000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44418</v>
+        <v>44320</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1875</v>
+        <v>875</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44258</v>
+        <v>44284</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>889</v>
+        <v>1125</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44284</v>
+        <v>44253</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44236</v>
+        <v>44327</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1562</v>
+        <v>938</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44330</v>
+        <v>44321</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44221</v>
+        <v>44274</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1389</v>
+        <v>875</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44265</v>
+        <v>44237</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P21" t="n">
-        <v>15400</v>
+        <v>18400</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>962</v>
+        <v>1150</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44249</v>
+        <v>44266</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44235</v>
+        <v>44418</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1562</v>
+        <v>1875</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44274</v>
+        <v>44427</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44274</v>
+        <v>44389</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>875</v>
+        <v>1875</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44321</v>
+        <v>44249</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44253</v>
+        <v>44265</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
         <v>16000</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44427</v>
+        <v>44280</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N29" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="P29" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44301</v>
+        <v>44270</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>55</v>
       </c>
       <c r="N30" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1375</v>
+        <v>625</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44301</v>
+        <v>44267</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>19000</v>
+        <v>15400</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1188</v>
+        <v>962</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O32" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>875</v>
+        <v>1375</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44237</v>
+        <v>44301</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="N33" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O33" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P33" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1562</v>
+        <v>1188</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44432</v>
+        <v>44251</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N34" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44273</v>
+        <v>44221</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O35" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>875</v>
+        <v>1389</v>
       </c>
       <c r="T35" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44294</v>
+        <v>44277</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
         <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44315</v>
+        <v>44273</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>15619</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>976</v>
+        <v>875</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44251</v>
+        <v>44306</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44435</v>
+        <v>44244</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="P39" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44319</v>
+        <v>44425</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44238</v>
+        <v>44323</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,11 +3640,11 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
         <v>14000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44235</v>
+        <v>44267</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>15400</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1562</v>
+        <v>962</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44432</v>
+        <v>44249</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44294</v>
+        <v>44266</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44315</v>
+        <v>44266</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>15619</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>976</v>
+        <v>938</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44266</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44236</v>
+        <v>44221</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
         <v>25000</v>
@@ -937,19 +937,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1562</v>
+        <v>1389</v>
       </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44258</v>
+        <v>44251</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N8" t="n">
         <v>16000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44330</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44435</v>
+        <v>44237</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>1562</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44319</v>
+        <v>44253</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44238</v>
+        <v>44323</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
         <v>14000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
         <v>14000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44284</v>
+        <v>44327</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1125</v>
+        <v>938</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44253</v>
+        <v>44418</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44327</v>
+        <v>44284</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44321</v>
+        <v>44244</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44274</v>
+        <v>44330</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1807,17 +1807,17 @@
         <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T18" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44274</v>
+        <v>44265</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44237</v>
+        <v>44315</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>15619</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1562</v>
+        <v>976</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44266</v>
+        <v>44294</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>18400</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1150</v>
+        <v>938</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44266</v>
+        <v>44427</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44266</v>
+        <v>44319</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44418</v>
+        <v>44273</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1875</v>
+        <v>875</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44427</v>
+        <v>44236</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N25" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2500</v>
+        <v>1562</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44389</v>
+        <v>44235</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1875</v>
+        <v>1562</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44249</v>
+        <v>44280</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44265</v>
+        <v>44274</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,11 +2600,11 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N28" t="n">
         <v>16000</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44280</v>
+        <v>44274</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P29" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44270</v>
+        <v>44320</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44267</v>
+        <v>44258</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
         <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>962</v>
+        <v>889</v>
       </c>
       <c r="T31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44301</v>
+        <v>44435</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1375</v>
+        <v>2500</v>
       </c>
       <c r="T32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O33" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>55</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44221</v>
+        <v>44301</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1389</v>
+        <v>1188</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44277</v>
+        <v>44321</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44273</v>
+        <v>44425</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44306</v>
+        <v>44270</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N38" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1375</v>
+        <v>625</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44244</v>
+        <v>44389</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O39" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P39" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>875</v>
+        <v>1875</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44425</v>
+        <v>44326</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44323</v>
+        <v>44432</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O41" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P41" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44267</v>
+        <v>44432</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P2" t="n">
-        <v>15400</v>
+        <v>45000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>962</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44249</v>
+        <v>44236</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44266</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44266</v>
+        <v>44321</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44221</v>
+        <v>44267</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>15400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1389</v>
+        <v>962</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44251</v>
+        <v>44258</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
         <v>16000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44320</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44237</v>
+        <v>44249</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44253</v>
+        <v>44237</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44323</v>
+        <v>44235</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44238</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O13" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P13" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44327</v>
+        <v>44427</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44418</v>
+        <v>44251</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44284</v>
+        <v>44327</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1125</v>
+        <v>938</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44244</v>
+        <v>44319</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44330</v>
+        <v>44266</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="P18" t="n">
-        <v>30000</v>
+        <v>18400</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1500</v>
+        <v>1150</v>
       </c>
       <c r="T18" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44315</v>
+        <v>44266</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>15619</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>976</v>
+        <v>625</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44294</v>
+        <v>44284</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44427</v>
+        <v>44238</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2127,13 +2127,13 @@
         <v>65</v>
       </c>
       <c r="N22" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="P22" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44319</v>
+        <v>44274</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
         <v>14000</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44236</v>
+        <v>44326</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1562</v>
+        <v>938</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44235</v>
+        <v>44294</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N26" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1562</v>
+        <v>938</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44280</v>
+        <v>44418</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1250</v>
+        <v>1875</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44274</v>
+        <v>44315</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="N28" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
         <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>16000</v>
+        <v>15619</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>976</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P29" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44320</v>
+        <v>44389</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P30" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>875</v>
+        <v>1875</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N31" t="n">
         <v>16000</v>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44435</v>
+        <v>44221</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2500</v>
+        <v>1389</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
         <v>22000</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44301</v>
+        <v>44425</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N35" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="O35" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="P35" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1188</v>
+        <v>2500</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44425</v>
+        <v>44301</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="N37" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="O37" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="P37" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>2500</v>
+        <v>1188</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>625</v>
+        <v>1500</v>
       </c>
       <c r="T38" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44389</v>
+        <v>44270</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N39" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1875</v>
+        <v>625</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44326</v>
+        <v>44244</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44432</v>
+        <v>44273</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N41" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="P41" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44432</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44236</v>
+        <v>44274</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44274</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44321</v>
+        <v>44258</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>938</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44265</v>
+        <v>44319</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -847,13 +847,13 @@
         <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44267</v>
+        <v>44253</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
         <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44258</v>
+        <v>44418</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>889</v>
+        <v>1875</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44320</v>
+        <v>44427</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P9" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44249</v>
+        <v>44280</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44237</v>
+        <v>44221</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
         <v>25000</v>
@@ -1257,19 +1257,19 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1562</v>
+        <v>1389</v>
       </c>
       <c r="T11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>44267</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>15400</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1562</v>
+        <v>962</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44266</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>45000</v>
+        <v>19000</v>
       </c>
       <c r="P13" t="n">
-        <v>45000</v>
+        <v>18400</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>1150</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44427</v>
+        <v>44266</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44251</v>
+        <v>44266</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44327</v>
+        <v>44273</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44266</v>
+        <v>44277</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44266</v>
+        <v>44235</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44266</v>
+        <v>44244</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44284</v>
+        <v>44320</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44238</v>
+        <v>44326</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44274</v>
+        <v>44321</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44274</v>
+        <v>44306</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>875</v>
+        <v>1375</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44326</v>
+        <v>44265</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44294</v>
+        <v>44237</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44418</v>
+        <v>44323</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1875</v>
+        <v>875</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44315</v>
+        <v>44249</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
         <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>15619</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44280</v>
+        <v>44270</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44389</v>
+        <v>44301</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N30" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O30" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1875</v>
+        <v>1375</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44277</v>
+        <v>44301</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>1188</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44221</v>
+        <v>44284</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1389</v>
+        <v>1125</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O33" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P33" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>15619</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1375</v>
+        <v>976</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44425</v>
+        <v>44327</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3167,13 +3167,13 @@
         <v>35</v>
       </c>
       <c r="N35" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44301</v>
+        <v>44238</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N36" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P36" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44301</v>
+        <v>44236</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N37" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O37" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P37" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1188</v>
+        <v>1562</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44330</v>
+        <v>44389</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
         <v>30000</v>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1500</v>
+        <v>1875</v>
       </c>
       <c r="T38" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44270</v>
+        <v>44251</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3487,13 +3487,13 @@
         <v>55</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44244</v>
+        <v>44330</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>875</v>
+        <v>1500</v>
       </c>
       <c r="T40" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44273</v>
+        <v>44432</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O41" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P41" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44251</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
         <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44274</v>
+        <v>44319</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44274</v>
+        <v>44301</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>875</v>
+        <v>1375</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44258</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>889</v>
+        <v>1188</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44319</v>
+        <v>44425</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44253</v>
+        <v>44235</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -927,13 +927,13 @@
         <v>55</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44418</v>
+        <v>44294</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1875</v>
+        <v>938</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44280</v>
+        <v>44330</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44221</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1389</v>
+        <v>875</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P12" t="n">
-        <v>15400</v>
+        <v>18400</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>962</v>
+        <v>1150</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>18400</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1150</v>
+        <v>938</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44266</v>
+        <v>44320</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44273</v>
+        <v>44258</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="T16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44435</v>
+        <v>44389</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1727,17 +1727,17 @@
         <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2500</v>
+        <v>1875</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44277</v>
+        <v>44321</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44235</v>
+        <v>44265</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44244</v>
+        <v>44323</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,11 +1960,11 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
         <v>14000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44320</v>
+        <v>44249</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O21" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
         <v>15000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44321</v>
+        <v>44326</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44306</v>
+        <v>44236</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1375</v>
+        <v>1562</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44265</v>
+        <v>44306</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44237</v>
+        <v>44277</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N26" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44323</v>
+        <v>44237</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44249</v>
+        <v>44221</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44270</v>
+        <v>44432</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="T29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44301</v>
+        <v>44284</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P30" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1375</v>
+        <v>1125</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44301</v>
+        <v>44315</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>19000</v>
+        <v>15619</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1188</v>
+        <v>976</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44284</v>
+        <v>44435</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="P32" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1125</v>
+        <v>2500</v>
       </c>
       <c r="T32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44425</v>
+        <v>44244</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="P33" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44315</v>
+        <v>44280</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N34" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>15619</v>
+        <v>20000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>976</v>
+        <v>1250</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44327</v>
+        <v>44427</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44238</v>
+        <v>44267</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>14000</v>
+        <v>15400</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>875</v>
+        <v>962</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44236</v>
+        <v>44418</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N37" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1562</v>
+        <v>1875</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44389</v>
+        <v>44270</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1875</v>
+        <v>625</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44251</v>
+        <v>44273</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3487,13 +3487,13 @@
         <v>55</v>
       </c>
       <c r="N39" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P39" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44330</v>
+        <v>44274</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3567,17 +3567,17 @@
         <v>35</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44432</v>
+        <v>44274</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="P41" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>55</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44319</v>
+        <v>44301</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44301</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1375</v>
+        <v>1562</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1188</v>
+        <v>1389</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44425</v>
+        <v>44253</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N6" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44235</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1562</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44294</v>
+        <v>44249</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
         <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44253</v>
+        <v>44244</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44330</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44284</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44266</v>
+        <v>44236</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>18400</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1150</v>
+        <v>1562</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44266</v>
+        <v>44320</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44266</v>
+        <v>44294</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44320</v>
+        <v>44326</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44258</v>
+        <v>44315</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
         <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>15619</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>889</v>
+        <v>976</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44389</v>
+        <v>44274</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44265</v>
+        <v>44237</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44249</v>
+        <v>44277</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N21" t="n">
         <v>16000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44327</v>
+        <v>44273</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44265</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44236</v>
+        <v>44330</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,36 +2280,36 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1562</v>
+        <v>1500</v>
       </c>
       <c r="T24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44306</v>
+        <v>44280</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1375</v>
+        <v>1250</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44277</v>
+        <v>44323</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44237</v>
+        <v>44266</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O27" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P27" t="n">
-        <v>25000</v>
+        <v>18400</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1562</v>
+        <v>1150</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44221</v>
+        <v>44266</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N28" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1389</v>
+        <v>938</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44432</v>
+        <v>44266</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2500</v>
+        <v>625</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44284</v>
+        <v>44267</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>18000</v>
+        <v>15400</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1125</v>
+        <v>962</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44315</v>
+        <v>44306</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>15619</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>976</v>
+        <v>1375</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44435</v>
+        <v>44427</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N32" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="O32" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="P32" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2949,7 +2949,7 @@
         <v>2500</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44244</v>
+        <v>44425</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O33" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P33" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44280</v>
+        <v>44418</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P34" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1250</v>
+        <v>1875</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44427</v>
+        <v>44251</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N35" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44267</v>
+        <v>44389</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>15400</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>962</v>
+        <v>1875</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44418</v>
+        <v>44321</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1875</v>
+        <v>938</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44270</v>
+        <v>44238</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44273</v>
+        <v>44258</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,20 +3484,20 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="T39" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44274</v>
+        <v>44432</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P40" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T40" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44274</v>
+        <v>44270</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O41" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44301</v>
+        <v>44274</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44301</v>
+        <v>44274</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1188</v>
+        <v>875</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44418</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1562</v>
+        <v>1875</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44326</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1389</v>
+        <v>938</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44253</v>
+        <v>44432</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44323</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44249</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44244</v>
+        <v>44270</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44235</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44284</v>
+        <v>44249</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44236</v>
+        <v>44315</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>15619</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1562</v>
+        <v>976</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44320</v>
+        <v>44425</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O13" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P13" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44294</v>
+        <v>44244</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
         <v>14000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44326</v>
+        <v>44253</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44315</v>
+        <v>44258</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
         <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>15619</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>976</v>
+        <v>889</v>
       </c>
       <c r="T16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44274</v>
+        <v>44321</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44274</v>
+        <v>44435</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44237</v>
+        <v>44284</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1562</v>
+        <v>1125</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44327</v>
+        <v>44273</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44277</v>
+        <v>44237</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N21" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44273</v>
+        <v>44267</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>14000</v>
+        <v>15400</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>875</v>
+        <v>962</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44265</v>
+        <v>44319</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2207,13 +2207,13 @@
         <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44330</v>
+        <v>44320</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1500</v>
+        <v>875</v>
       </c>
       <c r="T24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44280</v>
+        <v>44306</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44323</v>
+        <v>44251</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44266</v>
+        <v>44389</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44266</v>
+        <v>44221</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,36 +2680,36 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>625</v>
+        <v>1389</v>
       </c>
       <c r="T29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44267</v>
+        <v>44280</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>15400</v>
+        <v>20000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>962</v>
+        <v>1250</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44306</v>
+        <v>44330</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T31" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44427</v>
+        <v>44294</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N32" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44425</v>
+        <v>44301</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N33" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="O33" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2500</v>
+        <v>1375</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44418</v>
+        <v>44301</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N34" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O34" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="P34" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1875</v>
+        <v>1188</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44321</v>
+        <v>44266</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44238</v>
+        <v>44266</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44258</v>
+        <v>44266</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N39" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>889</v>
+        <v>625</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44432</v>
+        <v>44277</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N40" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O40" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P40" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44270</v>
+        <v>44327</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N41" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44274</v>
+        <v>44389</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44274</v>
+        <v>44432</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44418</v>
+        <v>44270</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1875</v>
+        <v>625</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44326</v>
+        <v>44418</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44432</v>
+        <v>44273</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N6" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44323</v>
+        <v>44301</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>875</v>
+        <v>1375</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44301</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>875</v>
+        <v>1188</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44270</v>
+        <v>44294</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44235</v>
+        <v>44320</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44249</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44315</v>
+        <v>44427</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P12" t="n">
-        <v>15619</v>
+        <v>40000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>976</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44425</v>
+        <v>44236</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>1562</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44244</v>
+        <v>44251</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44253</v>
+        <v>44244</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44258</v>
+        <v>44265</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
         <v>16000</v>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44321</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44284</v>
+        <v>44237</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1125</v>
+        <v>1562</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44273</v>
+        <v>44319</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44237</v>
+        <v>44258</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1562</v>
+        <v>889</v>
       </c>
       <c r="T21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44267</v>
+        <v>44238</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P22" t="n">
-        <v>15400</v>
+        <v>14000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>962</v>
+        <v>875</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44319</v>
+        <v>44267</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2210,10 +2210,10 @@
         <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44320</v>
+        <v>44327</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44306</v>
+        <v>44235</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1375</v>
+        <v>1562</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44251</v>
+        <v>44284</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44265</v>
+        <v>44253</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N27" t="n">
         <v>16000</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N28" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1875</v>
+        <v>1250</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44221</v>
+        <v>44266</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,36 +2680,36 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>18400</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1389</v>
+        <v>1150</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44280</v>
+        <v>44266</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44330</v>
+        <v>44266</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,24 +2840,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1500</v>
+        <v>625</v>
       </c>
       <c r="T31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44294</v>
+        <v>44277</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
         <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44301</v>
+        <v>44249</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44301</v>
+        <v>44330</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N34" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O34" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="P34" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1188</v>
+        <v>1500</v>
       </c>
       <c r="T34" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44236</v>
+        <v>44221</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
         <v>25000</v>
@@ -3177,19 +3177,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1562</v>
+        <v>1389</v>
       </c>
       <c r="T35" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44427</v>
+        <v>44315</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="N36" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>40000</v>
+        <v>15619</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2500</v>
+        <v>976</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44266</v>
+        <v>44323</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>18400</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1150</v>
+        <v>875</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44266</v>
+        <v>44306</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44266</v>
+        <v>44321</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44277</v>
+        <v>44274</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,11 +3560,11 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N40" t="n">
         <v>16000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44327</v>
+        <v>44274</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P41" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44266</v>
+        <v>44588</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>18400</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1150</v>
+        <v>1562</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44249</v>
+        <v>44277</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N33" t="n">
         <v>16000</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44330</v>
+        <v>44249</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="N34" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44221</v>
+        <v>44330</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,36 +3160,36 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1389</v>
+        <v>1500</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44315</v>
+        <v>44221</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>15619</v>
+        <v>25000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>976</v>
+        <v>1389</v>
       </c>
       <c r="T36" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44323</v>
+        <v>44315</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>15619</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>875</v>
+        <v>976</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P38" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44321</v>
+        <v>44306</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44274</v>
+        <v>44321</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3640,35 +3640,115 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>35</v>
+      </c>
+      <c r="N41" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O41" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P41" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T41" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="M42" t="n">
         <v>40</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N42" t="n">
         <v>14000</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O42" t="n">
         <v>14000</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P42" t="n">
         <v>14000</v>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S41" t="n">
+      <c r="S42" t="n">
         <v>875</v>
       </c>
-      <c r="T41" t="n">
+      <c r="T42" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44389</v>
+        <v>44274</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44432</v>
+        <v>44274</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44270</v>
+        <v>44321</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44273</v>
+        <v>44284</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>44267</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>15400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1375</v>
+        <v>962</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44301</v>
+        <v>44389</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1188</v>
+        <v>1875</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44294</v>
+        <v>44327</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,13 +1084,13 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
         <v>15000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44320</v>
+        <v>44273</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
         <v>14000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44266</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="P11" t="n">
-        <v>40000</v>
+        <v>18400</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2500</v>
+        <v>1150</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44427</v>
+        <v>44266</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44236</v>
+        <v>44266</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44251</v>
+        <v>44432</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44244</v>
+        <v>44251</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44326</v>
+        <v>44270</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44435</v>
+        <v>44235</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N18" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2500</v>
+        <v>1562</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44237</v>
+        <v>44253</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44319</v>
+        <v>44306</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44258</v>
+        <v>44594</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N21" t="n">
         <v>16000</v>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44238</v>
+        <v>44435</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O22" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P22" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44267</v>
+        <v>44323</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>15400</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>962</v>
+        <v>875</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44327</v>
+        <v>44265</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44235</v>
+        <v>44588</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
         <v>25000</v>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44284</v>
+        <v>44320</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44253</v>
+        <v>44244</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44280</v>
+        <v>44326</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44588</v>
+        <v>44238</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44266</v>
+        <v>44249</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N30" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44266</v>
+        <v>44237</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44266</v>
+        <v>44315</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>15619</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>625</v>
+        <v>976</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44277</v>
+        <v>44319</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44249</v>
+        <v>44280</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44330</v>
+        <v>44294</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,24 +3160,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N35" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T35" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44221</v>
+        <v>44330</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,36 +3240,36 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N36" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1389</v>
+        <v>1500</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44315</v>
+        <v>44301</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>15619</v>
+        <v>22000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>976</v>
+        <v>1375</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44323</v>
+        <v>44301</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O38" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P38" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>875</v>
+        <v>1188</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44306</v>
+        <v>44236</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N39" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O39" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1375</v>
+        <v>1562</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44321</v>
+        <v>44221</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,32 +3564,32 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>938</v>
+        <v>1389</v>
       </c>
       <c r="T40" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44274</v>
+        <v>44277</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,11 +3640,11 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N41" t="n">
         <v>16000</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44274</v>
+        <v>44258</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,31 +3724,111 @@
         </is>
       </c>
       <c r="M42" t="n">
+        <v>65</v>
+      </c>
+      <c r="N42" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O42" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P42" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>889</v>
+      </c>
+      <c r="T42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>40</v>
       </c>
-      <c r="N42" t="n">
-        <v>14000</v>
-      </c>
-      <c r="O42" t="n">
-        <v>14000</v>
-      </c>
-      <c r="P42" t="n">
-        <v>14000</v>
-      </c>
-      <c r="Q42" t="inlineStr">
+      <c r="N43" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O43" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P43" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S42" t="n">
-        <v>875</v>
-      </c>
-      <c r="T42" t="n">
+      <c r="S43" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T43" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3832,6 +3832,86 @@
         <v>16</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>115</v>
+      </c>
+      <c r="N44" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O44" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P44" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T44" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44326</v>
+        <v>44596</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44238</v>
+        <v>44326</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44249</v>
+        <v>44238</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44237</v>
+        <v>44249</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N31" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44315</v>
+        <v>44237</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>15619</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>976</v>
+        <v>1562</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44319</v>
+        <v>44315</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N33" t="n">
         <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>15619</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P34" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44294</v>
+        <v>44280</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>80</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44330</v>
+        <v>44294</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,24 +3240,24 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T36" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44301</v>
+        <v>44330</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,20 +3324,20 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N37" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T37" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N38" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O38" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44236</v>
+        <v>44301</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N39" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P39" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1562</v>
+        <v>1188</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N40" t="n">
         <v>25000</v>
@@ -3577,19 +3577,19 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44277</v>
+        <v>44221</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,32 +3644,32 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P41" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N42" t="n">
         <v>16000</v>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44418</v>
+        <v>44258</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,20 +3804,20 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N43" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O43" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1875</v>
+        <v>889</v>
       </c>
       <c r="T43" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,68 +3847,148 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>40</v>
+      </c>
+      <c r="N44" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O44" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P44" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T44" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
         <v>44595</v>
       </c>
-      <c r="E44" t="n">
-        <v>9</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>100107</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>100107011</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E45" t="n">
+        <v>9</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="M45" t="n">
         <v>115</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N45" t="n">
         <v>16000</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O45" t="n">
         <v>16000</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P45" t="n">
         <v>16000</v>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S44" t="n">
+      <c r="S45" t="n">
         <v>1000</v>
       </c>
-      <c r="T44" t="n">
+      <c r="T45" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44265</v>
+        <v>44601</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44588</v>
+        <v>44601</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,20 +2364,20 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44320</v>
+        <v>44265</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2447,13 +2447,13 @@
         <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44244</v>
+        <v>44588</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44596</v>
+        <v>44320</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44326</v>
+        <v>44244</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44238</v>
+        <v>44596</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44249</v>
+        <v>44326</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44315</v>
+        <v>44249</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
         <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>15619</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44319</v>
+        <v>44237</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N34" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P34" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44280</v>
+        <v>44315</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>20000</v>
+        <v>15619</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1250</v>
+        <v>976</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44294</v>
+        <v>44319</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
         <v>15000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,20 +3324,20 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T37" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44301</v>
+        <v>44294</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N38" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44301</v>
+        <v>44330</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N39" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O39" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="P39" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1188</v>
+        <v>1500</v>
       </c>
       <c r="T39" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44236</v>
+        <v>44301</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N40" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P40" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1562</v>
+        <v>1375</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44221</v>
+        <v>44301</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,32 +3644,32 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="N41" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O41" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P41" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1389</v>
+        <v>1188</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44277</v>
+        <v>44236</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N42" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P42" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44258</v>
+        <v>44221</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,29 +3804,29 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P43" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>889</v>
+        <v>1389</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44418</v>
+        <v>44277</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N44" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O44" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="N45" t="n">
         <v>16000</v>
@@ -3977,18 +3977,178 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
+        <v>889</v>
+      </c>
+      <c r="T45" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>40</v>
+      </c>
+      <c r="N46" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O46" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P46" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S45" t="n">
+      <c r="S46" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T46" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>115</v>
+      </c>
+      <c r="N47" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O47" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P47" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
         <v>1000</v>
       </c>
-      <c r="T45" t="n">
+      <c r="T47" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44596</v>
+        <v>44603</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>1094</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44326</v>
+        <v>44596</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44238</v>
+        <v>44326</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44249</v>
+        <v>44238</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44237</v>
+        <v>44249</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N34" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44315</v>
+        <v>44237</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>15619</v>
+        <v>25000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>976</v>
+        <v>1562</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44319</v>
+        <v>44315</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N36" t="n">
         <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>15000</v>
+        <v>15619</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44294</v>
+        <v>44280</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>80</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P38" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44330</v>
+        <v>44294</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N39" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T39" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44301</v>
+        <v>44330</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N40" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T40" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N41" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O41" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P41" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44236</v>
+        <v>44301</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N42" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O42" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P42" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1562</v>
+        <v>1188</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N43" t="n">
         <v>25000</v>
@@ -3817,19 +3817,19 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44277</v>
+        <v>44221</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,32 +3884,32 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P44" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T44" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N45" t="n">
         <v>16000</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44418</v>
+        <v>44258</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1875</v>
+        <v>889</v>
       </c>
       <c r="T46" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,68 +4087,148 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>40</v>
+      </c>
+      <c r="N47" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O47" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P47" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T47" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
         <v>44595</v>
       </c>
-      <c r="E47" t="n">
-        <v>9</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>100107</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>100107011</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="E48" t="n">
+        <v>9</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="M48" t="n">
         <v>115</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N48" t="n">
         <v>16000</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O48" t="n">
         <v>16000</v>
       </c>
-      <c r="P47" t="n">
+      <c r="P48" t="n">
         <v>16000</v>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S47" t="n">
+      <c r="S48" t="n">
         <v>1000</v>
       </c>
-      <c r="T47" t="n">
+      <c r="T48" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44238</v>
+        <v>44606</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44249</v>
+        <v>44238</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44237</v>
+        <v>44249</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44315</v>
+        <v>44237</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>15619</v>
+        <v>25000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>976</v>
+        <v>1562</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44319</v>
+        <v>44315</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N37" t="n">
         <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>15619</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44294</v>
+        <v>44280</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>80</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44330</v>
+        <v>44294</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T40" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44301</v>
+        <v>44330</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N41" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O41" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P41" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T41" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N42" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O42" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P42" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44236</v>
+        <v>44301</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N43" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O43" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P43" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1562</v>
+        <v>1188</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N44" t="n">
         <v>25000</v>
@@ -3897,19 +3897,19 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44277</v>
+        <v>44221</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,32 +3964,32 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O45" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P45" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T45" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N46" t="n">
         <v>16000</v>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44418</v>
+        <v>44258</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N47" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O47" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1875</v>
+        <v>889</v>
       </c>
       <c r="T47" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,68 +4167,148 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>40</v>
+      </c>
+      <c r="N48" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O48" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P48" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T48" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
         <v>44595</v>
       </c>
-      <c r="E48" t="n">
-        <v>9</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>100107</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>100107011</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="E49" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="M49" t="n">
         <v>115</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N49" t="n">
         <v>16000</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O49" t="n">
         <v>16000</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P49" t="n">
         <v>16000</v>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S48" t="n">
+      <c r="S49" t="n">
         <v>1000</v>
       </c>
-      <c r="T48" t="n">
+      <c r="T49" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44270</v>
+        <v>44624</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>17467</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>625</v>
+        <v>970</v>
       </c>
       <c r="T17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44235</v>
+        <v>44270</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1807,13 +1807,13 @@
         <v>55</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44253</v>
+        <v>44235</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1887,13 +1887,13 @@
         <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44306</v>
+        <v>44253</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44594</v>
+        <v>44306</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44435</v>
+        <v>44594</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N22" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44323</v>
+        <v>44435</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44601</v>
+        <v>44323</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1389</v>
+        <v>875</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44265</v>
+        <v>44601</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2469,7 +2469,7 @@
         <v>1000</v>
       </c>
       <c r="T26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44588</v>
+        <v>44265</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2527,13 +2527,13 @@
         <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44320</v>
+        <v>44588</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2607,13 +2607,13 @@
         <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O28" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44244</v>
+        <v>44320</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
         <v>14000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44603</v>
+        <v>44244</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1094</v>
+        <v>875</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44596</v>
+        <v>44603</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>1094</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44326</v>
+        <v>44596</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44606</v>
+        <v>44326</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44238</v>
+        <v>44606</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44249</v>
+        <v>44238</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44237</v>
+        <v>44249</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N36" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44315</v>
+        <v>44237</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P37" t="n">
-        <v>15619</v>
+        <v>25000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>976</v>
+        <v>1562</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44319</v>
+        <v>44315</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N38" t="n">
         <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>15000</v>
+        <v>15619</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O39" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44294</v>
+        <v>44280</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>80</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44330</v>
+        <v>44294</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N41" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T41" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44301</v>
+        <v>44330</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N42" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O42" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P42" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T42" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N43" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O43" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P43" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44236</v>
+        <v>44301</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N44" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O44" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P44" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1562</v>
+        <v>1188</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N45" t="n">
         <v>25000</v>
@@ -3977,19 +3977,19 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44277</v>
+        <v>44221</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,32 +4044,32 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N46" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P46" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T46" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N47" t="n">
         <v>16000</v>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44418</v>
+        <v>44258</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,20 +4204,20 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N48" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O48" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1875</v>
+        <v>889</v>
       </c>
       <c r="T48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,68 +4247,148 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>40</v>
+      </c>
+      <c r="N49" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O49" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P49" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T49" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
         <v>44595</v>
       </c>
-      <c r="E49" t="n">
-        <v>9</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>100107</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>100107011</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="E50" t="n">
+        <v>9</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="M50" t="n">
         <v>115</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N50" t="n">
         <v>16000</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O50" t="n">
         <v>16000</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P50" t="n">
         <v>16000</v>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Provincia de Los Andes</t>
-        </is>
-      </c>
-      <c r="S49" t="n">
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
         <v>1000</v>
       </c>
-      <c r="T49" t="n">
+      <c r="T50" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44327</v>
+        <v>44630</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44273</v>
+        <v>44327</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44266</v>
+        <v>44273</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>18400</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1150</v>
+        <v>875</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44432</v>
+        <v>44266</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>625</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44251</v>
+        <v>44432</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P15" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44427</v>
+        <v>44251</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N16" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44624</v>
+        <v>44427</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="P17" t="n">
-        <v>17467</v>
+        <v>40000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44270</v>
+        <v>44624</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>17467</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>625</v>
+        <v>970</v>
       </c>
       <c r="T18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44235</v>
+        <v>44270</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1887,13 +1887,13 @@
         <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44253</v>
+        <v>44235</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1967,13 +1967,13 @@
         <v>55</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44306</v>
+        <v>44253</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44594</v>
+        <v>44306</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44435</v>
+        <v>44594</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N23" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44323</v>
+        <v>44435</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44601</v>
+        <v>44323</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1389</v>
+        <v>875</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44265</v>
+        <v>44601</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2549,7 +2549,7 @@
         <v>1000</v>
       </c>
       <c r="T27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44588</v>
+        <v>44265</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2607,13 +2607,13 @@
         <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44320</v>
+        <v>44588</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2687,13 +2687,13 @@
         <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44244</v>
+        <v>44320</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
         <v>14000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44603</v>
+        <v>44244</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P31" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1094</v>
+        <v>875</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44596</v>
+        <v>44603</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>1094</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44326</v>
+        <v>44596</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44606</v>
+        <v>44326</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44238</v>
+        <v>44606</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P35" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44249</v>
+        <v>44238</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44237</v>
+        <v>44249</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N37" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O37" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44315</v>
+        <v>44237</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P38" t="n">
-        <v>15619</v>
+        <v>25000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>976</v>
+        <v>1562</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44319</v>
+        <v>44315</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N39" t="n">
         <v>15000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>15619</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44294</v>
+        <v>44280</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>80</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P41" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44330</v>
+        <v>44294</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T42" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44301</v>
+        <v>44330</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,20 +3804,20 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N43" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O43" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P43" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T43" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N44" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O44" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P44" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44236</v>
+        <v>44301</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N45" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O45" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P45" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1562</v>
+        <v>1188</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N46" t="n">
         <v>25000</v>
@@ -4057,19 +4057,19 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44277</v>
+        <v>44221</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,32 +4124,32 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N47" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P47" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T47" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N48" t="n">
         <v>16000</v>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44418</v>
+        <v>44258</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N49" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1875</v>
+        <v>889</v>
       </c>
       <c r="T49" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,68 +4327,148 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>40</v>
+      </c>
+      <c r="N50" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O50" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P50" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T50" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>44595</v>
       </c>
-      <c r="E50" t="n">
-        <v>9</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>100107</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>100107011</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="E51" t="n">
+        <v>9</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="M51" t="n">
         <v>115</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N51" t="n">
         <v>16000</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O51" t="n">
         <v>16000</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P51" t="n">
         <v>16000</v>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Provincia de Los Andes</t>
-        </is>
-      </c>
-      <c r="S50" t="n">
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
         <v>1000</v>
       </c>
-      <c r="T50" t="n">
+      <c r="T51" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44294</v>
+        <v>44637</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,13 +3724,13 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
         <v>15000</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44330</v>
+        <v>44294</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N43" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T43" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44301</v>
+        <v>44330</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,20 +3884,20 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N44" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O44" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P44" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T44" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N45" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O45" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P45" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44236</v>
+        <v>44301</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N46" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O46" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P46" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1562</v>
+        <v>1188</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N47" t="n">
         <v>25000</v>
@@ -4137,19 +4137,19 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44277</v>
+        <v>44221</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,32 +4204,32 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N48" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P48" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N49" t="n">
         <v>16000</v>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44418</v>
+        <v>44258</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,20 +4364,20 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N50" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O50" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1875</v>
+        <v>889</v>
       </c>
       <c r="T50" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,68 +4407,148 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>40</v>
+      </c>
+      <c r="N51" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O51" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P51" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T51" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
         <v>44595</v>
       </c>
-      <c r="E51" t="n">
-        <v>9</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>100107</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>100107011</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="E52" t="n">
+        <v>9</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="M52" t="n">
         <v>115</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N52" t="n">
         <v>16000</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O52" t="n">
         <v>16000</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P52" t="n">
         <v>16000</v>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Provincia de Los Andes</t>
-        </is>
-      </c>
-      <c r="S51" t="n">
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S52" t="n">
         <v>1000</v>
       </c>
-      <c r="T51" t="n">
+      <c r="T52" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44327</v>
+        <v>44649</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44273</v>
+        <v>44649</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
         <v>14000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44266</v>
+        <v>44327</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>18400</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1150</v>
+        <v>938</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44266</v>
+        <v>44273</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>18400</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>625</v>
+        <v>1150</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44432</v>
+        <v>44266</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44251</v>
+        <v>44266</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44427</v>
+        <v>44432</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="O17" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="P17" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1749,7 +1749,7 @@
         <v>2500</v>
       </c>
       <c r="T17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44624</v>
+        <v>44251</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>17467</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44270</v>
+        <v>44427</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44235</v>
+        <v>44624</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>17467</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1562</v>
+        <v>970</v>
       </c>
       <c r="T20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44253</v>
+        <v>44270</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2047,13 +2047,13 @@
         <v>55</v>
       </c>
       <c r="N21" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P21" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44306</v>
+        <v>44235</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1375</v>
+        <v>1562</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44594</v>
+        <v>44253</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N23" t="n">
         <v>16000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44435</v>
+        <v>44306</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2500</v>
+        <v>1375</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44323</v>
+        <v>44594</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44601</v>
+        <v>44435</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2447,13 +2447,13 @@
         <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="P26" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1389</v>
+        <v>2500</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44601</v>
+        <v>44650</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N27" t="n">
         <v>18000</v>
       </c>
       <c r="O27" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>18000</v>
+        <v>19333</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>1208</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44265</v>
+        <v>44323</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44588</v>
+        <v>44601</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,11 +2680,11 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
         <v>25000</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1562</v>
+        <v>1389</v>
       </c>
       <c r="T29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44320</v>
+        <v>44601</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,20 +2764,20 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P30" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44244</v>
+        <v>44265</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44603</v>
+        <v>44588</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1094</v>
+        <v>1562</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44596</v>
+        <v>44320</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44326</v>
+        <v>44244</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44606</v>
+        <v>44603</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O35" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P35" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>625</v>
+        <v>1094</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44238</v>
+        <v>44596</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44249</v>
+        <v>44326</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44237</v>
+        <v>44606</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N38" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44315</v>
+        <v>44238</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P39" t="n">
-        <v>15619</v>
+        <v>14000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>976</v>
+        <v>875</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44319</v>
+        <v>44249</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44280</v>
+        <v>44237</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N41" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O41" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P41" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44637</v>
+        <v>44315</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="N42" t="n">
         <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>15000</v>
+        <v>15619</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44294</v>
+        <v>44319</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,13 +3804,13 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P43" t="n">
         <v>15000</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,20 +3884,20 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N44" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O44" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P44" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T44" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44301</v>
+        <v>44637</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N45" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44301</v>
+        <v>44294</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N46" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1188</v>
+        <v>938</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44236</v>
+        <v>44330</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,36 +4120,36 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N47" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O47" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P47" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1562</v>
+        <v>1500</v>
       </c>
       <c r="T47" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44221</v>
+        <v>44301</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,36 +4200,36 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N48" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O48" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P48" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44277</v>
+        <v>44301</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>1188</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44258</v>
+        <v>44236</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,32 +4364,32 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N50" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P50" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>889</v>
+        <v>1562</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44418</v>
+        <v>44221</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,32 +4444,32 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N51" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O51" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P51" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1875</v>
+        <v>1389</v>
       </c>
       <c r="T51" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="N52" t="n">
         <v>16000</v>
@@ -4549,6 +4549,246 @@
         <v>1000</v>
       </c>
       <c r="T52" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="E53" t="n">
+        <v>9</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>65</v>
+      </c>
+      <c r="N53" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O53" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P53" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
+        <v>889</v>
+      </c>
+      <c r="T53" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>40</v>
+      </c>
+      <c r="N54" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O54" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P54" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S54" t="n">
+        <v>1875</v>
+      </c>
+      <c r="T54" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>115</v>
+      </c>
+      <c r="N55" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O55" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P55" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T55" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44274</v>
+        <v>44588</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44274</v>
+        <v>44258</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="T3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44321</v>
+        <v>44315</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>15619</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>44280</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44284</v>
+        <v>44238</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44267</v>
+        <v>44630</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>15400</v>
+        <v>17000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>962</v>
+        <v>1062</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44235</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1875</v>
+        <v>1562</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44630</v>
+        <v>44320</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1062</v>
+        <v>875</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44649</v>
+        <v>44326</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44649</v>
+        <v>44637</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44327</v>
+        <v>44594</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44273</v>
+        <v>44267</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>14000</v>
+        <v>15400</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>875</v>
+        <v>962</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44266</v>
+        <v>44327</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>18400</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1150</v>
+        <v>938</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44266</v>
+        <v>44389</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44266</v>
+        <v>44306</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>625</v>
+        <v>1375</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44432</v>
+        <v>44221</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2500</v>
+        <v>1389</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44251</v>
+        <v>44321</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44427</v>
+        <v>44249</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N19" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44624</v>
+        <v>44266</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P20" t="n">
-        <v>17467</v>
+        <v>18400</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>970</v>
+        <v>1150</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44270</v>
+        <v>44266</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44235</v>
+        <v>44266</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44253</v>
+        <v>44244</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44306</v>
+        <v>44301</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N24" t="n">
         <v>22000</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44594</v>
+        <v>44301</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>1188</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44435</v>
+        <v>44274</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44650</v>
+        <v>44274</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P27" t="n">
-        <v>19333</v>
+        <v>14000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1208</v>
+        <v>875</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44323</v>
+        <v>44236</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O28" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44601</v>
+        <v>44253</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44601</v>
+        <v>44606</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,24 +2760,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>80</v>
       </c>
       <c r="N30" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44265</v>
+        <v>44649</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44588</v>
+        <v>44649</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44320</v>
+        <v>44284</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O33" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P33" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44244</v>
+        <v>44435</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O34" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P34" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T34" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44596</v>
+        <v>44237</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44326</v>
+        <v>44418</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44606</v>
+        <v>44319</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44238</v>
+        <v>44595</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44249</v>
+        <v>44650</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N40" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P40" t="n">
-        <v>16000</v>
+        <v>19333</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>1208</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44237</v>
+        <v>44601</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,11 +3640,11 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
         <v>25000</v>
@@ -3657,19 +3657,19 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1562</v>
+        <v>1389</v>
       </c>
       <c r="T41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44315</v>
+        <v>44601</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P42" t="n">
-        <v>15619</v>
+        <v>18000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44319</v>
+        <v>44273</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P43" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44280</v>
+        <v>44596</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N44" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O44" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44637</v>
+        <v>44427</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3967,13 +3967,13 @@
         <v>65</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44294</v>
+        <v>44330</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>938</v>
+        <v>1500</v>
       </c>
       <c r="T46" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44330</v>
+        <v>44251</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N47" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O47" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44301</v>
+        <v>44425</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N48" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="O48" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="P48" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1375</v>
+        <v>2500</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44301</v>
+        <v>44277</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N49" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1188</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44236</v>
+        <v>44294</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N50" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1562</v>
+        <v>938</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44221</v>
+        <v>44265</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,32 +4444,32 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N51" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44277</v>
+        <v>44624</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,20 +4524,20 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N52" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P52" t="n">
-        <v>16000</v>
+        <v>17467</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="T52" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44258</v>
+        <v>44323</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N53" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P53" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44418</v>
+        <v>44270</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N54" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1875</v>
+        <v>625</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44595</v>
+        <v>44432</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,24 +4760,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N55" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="O55" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P55" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T55" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44588</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
         <v>25000</v>
@@ -537,19 +537,19 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1562</v>
+        <v>1389</v>
       </c>
       <c r="T2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44258</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -607,17 +607,17 @@
         <v>65</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44315</v>
+        <v>44588</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>15619</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>976</v>
+        <v>1562</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44280</v>
+        <v>44294</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44238</v>
+        <v>44418</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>875</v>
+        <v>1875</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44630</v>
+        <v>44606</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44235</v>
+        <v>44320</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44326</v>
+        <v>44315</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="N10" t="n">
         <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>15619</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44637</v>
+        <v>44244</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44594</v>
+        <v>44306</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44267</v>
+        <v>44249</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
         <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44389</v>
+        <v>44637</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1875</v>
+        <v>938</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44306</v>
+        <v>44277</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44221</v>
+        <v>44425</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1389</v>
+        <v>2500</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44321</v>
+        <v>44253</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44249</v>
+        <v>44270</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44266</v>
+        <v>44273</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>18400</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1150</v>
+        <v>875</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44266</v>
+        <v>44319</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
         <v>15000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44266</v>
+        <v>44624</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>17467</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>625</v>
+        <v>970</v>
       </c>
       <c r="T22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44244</v>
+        <v>44630</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44301</v>
+        <v>44323</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44301</v>
+        <v>44267</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>19000</v>
+        <v>15400</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1188</v>
+        <v>962</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44274</v>
+        <v>44649</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44274</v>
+        <v>44649</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,11 +2520,11 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
         <v>14000</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44236</v>
+        <v>44595</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="N28" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44253</v>
+        <v>44274</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,11 +2680,11 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N29" t="n">
         <v>16000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44606</v>
+        <v>44274</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44649</v>
+        <v>44235</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N31" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P31" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44649</v>
+        <v>44280</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O32" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P32" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44284</v>
+        <v>44265</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N34" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44603</v>
+        <v>44258</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N35" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1094</v>
+        <v>889</v>
       </c>
       <c r="T35" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44237</v>
+        <v>44596</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N36" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44418</v>
+        <v>44284</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1875</v>
+        <v>1125</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44319</v>
+        <v>44432</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="P38" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T38" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44595</v>
+        <v>44236</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="N39" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44650</v>
+        <v>44603</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O40" t="n">
         <v>18000</v>
       </c>
-      <c r="O40" t="n">
-        <v>20000</v>
-      </c>
       <c r="P40" t="n">
-        <v>19333</v>
+        <v>17500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1208</v>
+        <v>1094</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44273</v>
+        <v>44301</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>55</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O43" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P43" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>875</v>
+        <v>1375</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44596</v>
+        <v>44301</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N44" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P44" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>1188</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44427</v>
+        <v>44266</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N45" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="O45" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="P45" t="n">
-        <v>40000</v>
+        <v>18400</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>2500</v>
+        <v>1150</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44330</v>
+        <v>44266</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T46" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44251</v>
+        <v>44266</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N47" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44425</v>
+        <v>44237</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N48" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="O48" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="P48" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>2500</v>
+        <v>1562</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44277</v>
+        <v>44326</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44294</v>
+        <v>44650</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P50" t="n">
-        <v>15000</v>
+        <v>19333</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>938</v>
+        <v>1208</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44265</v>
+        <v>44594</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N51" t="n">
         <v>16000</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44624</v>
+        <v>44427</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,20 +4524,20 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N52" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="O52" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="P52" t="n">
-        <v>17467</v>
+        <v>40000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="T52" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44323</v>
+        <v>44389</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>30</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O53" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P53" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>875</v>
+        <v>1875</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,24 +4680,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P54" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>625</v>
+        <v>1500</v>
       </c>
       <c r="T54" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44630</v>
+        <v>44658</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
         <v>17000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44323</v>
+        <v>44630</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44267</v>
+        <v>44323</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>15400</v>
+        <v>14000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>962</v>
+        <v>875</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44649</v>
+        <v>44267</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>20000</v>
+        <v>15400</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1250</v>
+        <v>962</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44595</v>
+        <v>44649</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44274</v>
+        <v>44595</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,11 +2680,11 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="N29" t="n">
         <v>16000</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44235</v>
+        <v>44274</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P31" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44280</v>
+        <v>44235</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44265</v>
+        <v>44280</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44251</v>
+        <v>44265</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
         <v>16000</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44258</v>
+        <v>44251</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N35" t="n">
         <v>16000</v>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44596</v>
+        <v>44258</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N36" t="n">
         <v>16000</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T36" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44284</v>
+        <v>44596</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N37" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O37" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44432</v>
+        <v>44284</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="O38" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="P38" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2500</v>
+        <v>1125</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44236</v>
+        <v>44432</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,36 +3480,36 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="P39" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1562</v>
+        <v>2500</v>
       </c>
       <c r="T39" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44603</v>
+        <v>44236</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N40" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O40" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P40" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1094</v>
+        <v>1562</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44601</v>
+        <v>44603</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O41" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P41" t="n">
-        <v>25000</v>
+        <v>17500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1389</v>
+        <v>1094</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O42" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P42" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44301</v>
+        <v>44601</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N43" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O43" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P43" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N44" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O44" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P44" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44266</v>
+        <v>44301</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N45" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O45" t="n">
         <v>19000</v>
       </c>
       <c r="P45" t="n">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1150</v>
+        <v>1188</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N46" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P46" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44237</v>
+        <v>44266</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>20</v>
       </c>
       <c r="N48" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P48" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44326</v>
+        <v>44237</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N49" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P49" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44650</v>
+        <v>44326</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O50" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P50" t="n">
-        <v>19333</v>
+        <v>15000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1208</v>
+        <v>938</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44594</v>
+        <v>44650</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>19333</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1000</v>
+        <v>1208</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44427</v>
+        <v>44594</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N52" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O52" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N53" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="O53" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="P53" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44330</v>
+        <v>44389</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N54" t="n">
         <v>30000</v>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1500</v>
+        <v>1875</v>
       </c>
       <c r="T54" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -4727,68 +4727,148 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
+        <v>44330</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>35</v>
+      </c>
+      <c r="N55" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O55" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P55" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S55" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
         <v>44435</v>
       </c>
-      <c r="E55" t="n">
-        <v>9</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>100107</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>100107011</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="E56" t="n">
+        <v>9</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="M56" t="n">
         <v>30</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N56" t="n">
         <v>45000</v>
       </c>
-      <c r="O55" t="n">
+      <c r="O56" t="n">
         <v>45000</v>
       </c>
-      <c r="P55" t="n">
+      <c r="P56" t="n">
         <v>45000</v>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Provincia de Los Andes</t>
-        </is>
-      </c>
-      <c r="S55" t="n">
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S56" t="n">
         <v>2500</v>
       </c>
-      <c r="T55" t="n">
+      <c r="T56" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44251</v>
+        <v>44663</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44258</v>
+        <v>44251</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N36" t="n">
         <v>16000</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44596</v>
+        <v>44258</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N37" t="n">
         <v>16000</v>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44284</v>
+        <v>44596</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N38" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O38" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44432</v>
+        <v>44284</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="O39" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="P39" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2500</v>
+        <v>1125</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44236</v>
+        <v>44432</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,36 +3560,36 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="P40" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1562</v>
+        <v>2500</v>
       </c>
       <c r="T40" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44603</v>
+        <v>44236</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N41" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O41" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P41" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1094</v>
+        <v>1562</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44601</v>
+        <v>44603</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N42" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O42" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P42" t="n">
-        <v>25000</v>
+        <v>17500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1389</v>
+        <v>1094</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O43" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P43" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44301</v>
+        <v>44601</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,24 +3880,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N44" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O44" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P44" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N45" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O45" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P45" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44266</v>
+        <v>44301</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N46" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O46" t="n">
         <v>19000</v>
       </c>
       <c r="P46" t="n">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1150</v>
+        <v>1188</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N47" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P47" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O48" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P48" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44237</v>
+        <v>44266</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>20</v>
       </c>
       <c r="N49" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44326</v>
+        <v>44237</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P50" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44650</v>
+        <v>44326</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O51" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P51" t="n">
-        <v>19333</v>
+        <v>15000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1208</v>
+        <v>938</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44594</v>
+        <v>44650</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="N52" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P52" t="n">
-        <v>16000</v>
+        <v>19333</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>1208</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44427</v>
+        <v>44594</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N53" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O53" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N54" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="O54" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="P54" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44330</v>
+        <v>44389</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N55" t="n">
         <v>30000</v>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1500</v>
+        <v>1875</v>
       </c>
       <c r="T55" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -4807,68 +4807,148 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
+        <v>44330</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>35</v>
+      </c>
+      <c r="N56" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O56" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P56" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T56" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
         <v>44435</v>
       </c>
-      <c r="E56" t="n">
-        <v>9</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>100107</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>100107011</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="E57" t="n">
+        <v>9</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="M57" t="n">
         <v>30</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N57" t="n">
         <v>45000</v>
       </c>
-      <c r="O56" t="n">
+      <c r="O57" t="n">
         <v>45000</v>
       </c>
-      <c r="P56" t="n">
+      <c r="P57" t="n">
         <v>45000</v>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Provincia de Los Andes</t>
-        </is>
-      </c>
-      <c r="S56" t="n">
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
         <v>2500</v>
       </c>
-      <c r="T56" t="n">
+      <c r="T57" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44321</v>
+        <v>44677</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44315</v>
+        <v>44321</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>15619</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>976</v>
+        <v>938</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44244</v>
+        <v>44315</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>15619</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>875</v>
+        <v>976</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44306</v>
+        <v>44244</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44249</v>
+        <v>44306</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44327</v>
+        <v>44249</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44637</v>
+        <v>44327</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N15" t="n">
         <v>15000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44277</v>
+        <v>44637</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44425</v>
+        <v>44277</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44253</v>
+        <v>44425</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44270</v>
+        <v>44253</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1887,13 +1887,13 @@
         <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44273</v>
+        <v>44270</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1967,13 +1967,13 @@
         <v>55</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44319</v>
+        <v>44273</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44624</v>
+        <v>44319</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>17467</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>970</v>
+        <v>938</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44658</v>
+        <v>44624</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N23" t="n">
         <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>17000</v>
+        <v>17467</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1062</v>
+        <v>970</v>
       </c>
       <c r="T23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44630</v>
+        <v>44658</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
         <v>17000</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44323</v>
+        <v>44630</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O25" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P25" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44267</v>
+        <v>44323</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P26" t="n">
-        <v>15400</v>
+        <v>14000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>962</v>
+        <v>875</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44649</v>
+        <v>44267</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>20000</v>
+        <v>15400</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1250</v>
+        <v>962</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44595</v>
+        <v>44649</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P29" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44274</v>
+        <v>44595</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,11 +2760,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="N30" t="n">
         <v>16000</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44235</v>
+        <v>44274</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44280</v>
+        <v>44235</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N33" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O33" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P33" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44265</v>
+        <v>44280</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44663</v>
+        <v>44265</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
         <v>16000</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44251</v>
+        <v>44663</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44258</v>
+        <v>44251</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N37" t="n">
         <v>16000</v>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44596</v>
+        <v>44258</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N38" t="n">
         <v>16000</v>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T38" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44284</v>
+        <v>44596</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N39" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44432</v>
+        <v>44284</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="O40" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="P40" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2500</v>
+        <v>1125</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44236</v>
+        <v>44432</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,36 +3640,36 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="O41" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="P41" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1562</v>
+        <v>2500</v>
       </c>
       <c r="T41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44603</v>
+        <v>44236</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N42" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O42" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P42" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1094</v>
+        <v>1562</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44601</v>
+        <v>44603</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N43" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O43" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P43" t="n">
-        <v>25000</v>
+        <v>17500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1389</v>
+        <v>1094</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O44" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P44" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44301</v>
+        <v>44601</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N45" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O45" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P45" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N46" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O46" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P46" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44266</v>
+        <v>44301</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N47" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O47" t="n">
         <v>19000</v>
       </c>
       <c r="P47" t="n">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1150</v>
+        <v>1188</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N48" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O48" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P48" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44237</v>
+        <v>44266</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>20</v>
       </c>
       <c r="N50" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44326</v>
+        <v>44237</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N51" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P51" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44650</v>
+        <v>44326</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>19333</v>
+        <v>15000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1208</v>
+        <v>938</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44594</v>
+        <v>44650</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="N53" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P53" t="n">
-        <v>16000</v>
+        <v>19333</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1000</v>
+        <v>1208</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44427</v>
+        <v>44594</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N54" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O54" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N55" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="O55" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="P55" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44330</v>
+        <v>44389</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N56" t="n">
         <v>30000</v>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1500</v>
+        <v>1875</v>
       </c>
       <c r="T56" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -4887,68 +4887,148 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
+        <v>44330</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>35</v>
+      </c>
+      <c r="N57" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O57" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P57" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T57" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
         <v>44435</v>
       </c>
-      <c r="E57" t="n">
-        <v>9</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>100107</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>100107011</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="E58" t="n">
+        <v>9</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="M58" t="n">
         <v>30</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N58" t="n">
         <v>45000</v>
       </c>
-      <c r="O57" t="n">
+      <c r="O58" t="n">
         <v>45000</v>
       </c>
-      <c r="P57" t="n">
+      <c r="P58" t="n">
         <v>45000</v>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Provincia de Los Andes</t>
-        </is>
-      </c>
-      <c r="S57" t="n">
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S58" t="n">
         <v>2500</v>
       </c>
-      <c r="T57" t="n">
+      <c r="T58" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44663</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44588</v>
+        <v>44595</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44294</v>
+        <v>44389</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44418</v>
+        <v>44630</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1875</v>
+        <v>1062</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44606</v>
+        <v>44432</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44320</v>
+        <v>44603</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>875</v>
+        <v>1094</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44677</v>
+        <v>44273</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1087,13 +1087,13 @@
         <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44321</v>
+        <v>44244</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44315</v>
+        <v>44321</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>15619</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>976</v>
+        <v>938</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44244</v>
+        <v>44235</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44306</v>
+        <v>44280</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1375</v>
+        <v>1250</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44249</v>
+        <v>44270</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44637</v>
+        <v>44319</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
         <v>15000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44277</v>
+        <v>44265</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
         <v>16000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44425</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44253</v>
+        <v>44238</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44270</v>
+        <v>44427</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44273</v>
+        <v>44266</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P21" t="n">
-        <v>14000</v>
+        <v>18400</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>875</v>
+        <v>1150</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44319</v>
+        <v>44266</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
         <v>15000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44624</v>
+        <v>44266</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>17467</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>970</v>
+        <v>625</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44658</v>
+        <v>44330</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1062</v>
+        <v>1500</v>
       </c>
       <c r="T24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44630</v>
+        <v>44237</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1062</v>
+        <v>1562</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44323</v>
+        <v>44588</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O26" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44267</v>
+        <v>44624</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P27" t="n">
-        <v>15400</v>
+        <v>17467</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="T27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P28" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1250</v>
+        <v>1062</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44649</v>
+        <v>44320</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,11 +2680,11 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
         <v>14000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44595</v>
+        <v>44327</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44274</v>
+        <v>44637</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44274</v>
+        <v>44294</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N32" t="n">
         <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44235</v>
+        <v>44251</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3007,13 +3007,13 @@
         <v>55</v>
       </c>
       <c r="N33" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44280</v>
+        <v>44606</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>80</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44265</v>
+        <v>44649</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44663</v>
+        <v>44649</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44251</v>
+        <v>44315</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="N37" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
         <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>16000</v>
+        <v>15619</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>976</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44258</v>
+        <v>44323</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P38" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44596</v>
+        <v>44267</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O39" t="n">
         <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44284</v>
+        <v>44601</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O40" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P40" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1125</v>
+        <v>1389</v>
       </c>
       <c r="T40" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44432</v>
+        <v>44601</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N41" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="O41" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="P41" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44236</v>
+        <v>44435</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,36 +3720,36 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="O42" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="P42" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1562</v>
+        <v>2500</v>
       </c>
       <c r="T42" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44603</v>
+        <v>44418</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3807,13 +3807,13 @@
         <v>40</v>
       </c>
       <c r="N43" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="O43" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="P43" t="n">
-        <v>17500</v>
+        <v>30000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1094</v>
+        <v>1875</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44601</v>
+        <v>44236</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,11 +3880,11 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N44" t="n">
         <v>25000</v>
@@ -3897,19 +3897,19 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44601</v>
+        <v>44258</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N45" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O45" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P45" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44266</v>
+        <v>44596</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N48" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O48" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44266</v>
+        <v>44249</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N49" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44266</v>
+        <v>44221</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,36 +4360,36 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P50" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>625</v>
+        <v>1389</v>
       </c>
       <c r="T50" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44237</v>
+        <v>44284</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N51" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O51" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P51" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1562</v>
+        <v>1125</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44326</v>
+        <v>44594</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44650</v>
+        <v>44274</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N53" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O53" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>19333</v>
+        <v>16000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1208</v>
+        <v>1000</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44594</v>
+        <v>44274</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N54" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P54" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44427</v>
+        <v>44677</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N55" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O55" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="P55" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44389</v>
+        <v>44425</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N56" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="O56" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="P56" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44330</v>
+        <v>44650</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,24 +4920,24 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N57" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="O57" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P57" t="n">
-        <v>30000</v>
+        <v>19333</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1500</v>
+        <v>1208</v>
       </c>
       <c r="T57" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44435</v>
+        <v>44306</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,20 +5004,20 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N58" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="O58" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="P58" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>2500</v>
+        <v>1375</v>
       </c>
       <c r="T58" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44663</v>
+        <v>44658</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44251</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44595</v>
+        <v>44606</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44389</v>
+        <v>44258</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1875</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44630</v>
+        <v>44238</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1062</v>
+        <v>875</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44603</v>
+        <v>44270</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>17500</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1094</v>
+        <v>625</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44273</v>
+        <v>44650</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>14000</v>
+        <v>19333</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>875</v>
+        <v>1208</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44244</v>
+        <v>44588</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44321</v>
+        <v>44267</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
         <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44235</v>
+        <v>44301</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>55</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1562</v>
+        <v>1375</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44280</v>
+        <v>44301</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44270</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44277</v>
+        <v>44253</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N15" t="n">
         <v>16000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44319</v>
+        <v>44637</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N16" t="n">
         <v>15000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44265</v>
+        <v>44323</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44277</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44238</v>
+        <v>44326</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44427</v>
+        <v>44321</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44266</v>
+        <v>44418</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>18400</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1150</v>
+        <v>1875</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44266</v>
+        <v>44595</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44266</v>
+        <v>44244</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44330</v>
+        <v>44677</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44237</v>
+        <v>44663</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44588</v>
+        <v>44274</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44624</v>
+        <v>44274</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P27" t="n">
-        <v>17467</v>
+        <v>14000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>970</v>
+        <v>875</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44658</v>
+        <v>44319</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1062</v>
+        <v>938</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44320</v>
+        <v>44266</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O29" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P29" t="n">
-        <v>14000</v>
+        <v>18400</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>875</v>
+        <v>1150</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44327</v>
+        <v>44266</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
         <v>15000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44637</v>
+        <v>44266</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44294</v>
+        <v>44624</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>17467</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>938</v>
+        <v>970</v>
       </c>
       <c r="T32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44251</v>
+        <v>44221</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T33" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44606</v>
+        <v>44306</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>625</v>
+        <v>1375</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44649</v>
+        <v>44596</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44649</v>
+        <v>44594</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44315</v>
+        <v>44601</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P37" t="n">
-        <v>15619</v>
+        <v>25000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>976</v>
+        <v>1389</v>
       </c>
       <c r="T37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44323</v>
+        <v>44601</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O38" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P38" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44267</v>
+        <v>44649</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P39" t="n">
-        <v>15400</v>
+        <v>20000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>962</v>
+        <v>1250</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44601</v>
+        <v>44649</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1389</v>
+        <v>875</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44601</v>
+        <v>44235</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,32 +3644,32 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N41" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O41" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P41" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44435</v>
+        <v>44280</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="O42" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="P42" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44418</v>
+        <v>44630</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="O43" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="P43" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1875</v>
+        <v>1062</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44236</v>
+        <v>44315</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N44" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O44" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>25000</v>
+        <v>15619</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1562</v>
+        <v>976</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44258</v>
+        <v>44389</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O45" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P45" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>889</v>
+        <v>1875</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44301</v>
+        <v>44320</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N46" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P46" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44301</v>
+        <v>44236</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N47" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O47" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P47" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1188</v>
+        <v>1562</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44596</v>
+        <v>44249</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N48" t="n">
         <v>16000</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44249</v>
+        <v>44294</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
         <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44221</v>
+        <v>44603</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,32 +4364,32 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N50" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O50" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P50" t="n">
-        <v>25000</v>
+        <v>17500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1389</v>
+        <v>1094</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44284</v>
+        <v>44432</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N51" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="O51" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="P51" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1125</v>
+        <v>2500</v>
       </c>
       <c r="T51" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44594</v>
+        <v>44284</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="N52" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P52" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44274</v>
+        <v>44237</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N53" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P53" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44274</v>
+        <v>44427</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N54" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O54" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P54" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44677</v>
+        <v>44330</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,24 +4760,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N55" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O55" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P55" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T55" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44425</v>
+        <v>44273</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N56" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="P56" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44650</v>
+        <v>44265</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N57" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O57" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>19333</v>
+        <v>16000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1208</v>
+        <v>1000</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N58" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O58" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44658</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1062</v>
+        <v>938</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44251</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44606</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44258</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>889</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44238</v>
+        <v>44630</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44265</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44270</v>
+        <v>44284</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44650</v>
+        <v>44235</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>19333</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1208</v>
+        <v>1562</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44588</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1167,13 +1167,13 @@
         <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1562</v>
+        <v>938</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44267</v>
+        <v>44253</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
         <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44301</v>
+        <v>44258</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1375</v>
+        <v>889</v>
       </c>
       <c r="T12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44301</v>
+        <v>44274</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1188</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44274</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44253</v>
+        <v>44624</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>16000</v>
+        <v>17467</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="T15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44637</v>
+        <v>44663</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44323</v>
+        <v>44596</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44277</v>
+        <v>44649</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44326</v>
+        <v>44649</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44321</v>
+        <v>44306</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44418</v>
+        <v>44236</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1875</v>
+        <v>1562</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44244</v>
+        <v>44432</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44677</v>
+        <v>44327</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44663</v>
+        <v>44321</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44274</v>
+        <v>44266</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>18400</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44274</v>
+        <v>44266</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44319</v>
+        <v>44266</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44266</v>
+        <v>44237</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>18400</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1150</v>
+        <v>1562</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44266</v>
+        <v>44221</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>938</v>
+        <v>1389</v>
       </c>
       <c r="T30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44266</v>
+        <v>44270</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,11 +2840,11 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N31" t="n">
         <v>10000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44624</v>
+        <v>44249</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N32" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>17467</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44221</v>
+        <v>44588</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
         <v>25000</v>
@@ -3017,19 +3017,19 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44306</v>
+        <v>44244</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44596</v>
+        <v>44277</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N35" t="n">
         <v>16000</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44594</v>
+        <v>44418</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44601</v>
+        <v>44330</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,20 +3324,20 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N37" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1389</v>
+        <v>1500</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44601</v>
+        <v>44677</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,20 +3404,20 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N38" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O38" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P38" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44649</v>
+        <v>44238</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3487,13 +3487,13 @@
         <v>65</v>
       </c>
       <c r="N39" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P39" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44649</v>
+        <v>44280</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O40" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P40" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44235</v>
+        <v>44389</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O41" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P41" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1562</v>
+        <v>1875</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44280</v>
+        <v>44637</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N42" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44630</v>
+        <v>44301</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N43" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O43" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P43" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1062</v>
+        <v>1375</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44315</v>
+        <v>44301</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="N44" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P44" t="n">
-        <v>15619</v>
+        <v>19000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>976</v>
+        <v>1188</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44389</v>
+        <v>44650</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N45" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="O45" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P45" t="n">
-        <v>30000</v>
+        <v>19333</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1875</v>
+        <v>1208</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44320</v>
+        <v>44273</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N46" t="n">
         <v>14000</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44236</v>
+        <v>44658</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O47" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="P47" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1562</v>
+        <v>1062</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N48" t="n">
         <v>16000</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44294</v>
+        <v>44267</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O49" t="n">
         <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44432</v>
+        <v>44427</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N51" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="O51" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="P51" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4469,7 +4469,7 @@
         <v>2500</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44284</v>
+        <v>44601</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4520,24 +4520,24 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N52" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O52" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P52" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1125</v>
+        <v>1389</v>
       </c>
       <c r="T52" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44237</v>
+        <v>44601</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,32 +4604,32 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N53" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O53" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P53" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T53" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44427</v>
+        <v>44606</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N54" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>2500</v>
+        <v>625</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44330</v>
+        <v>44594</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,24 +4760,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="N55" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O55" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T55" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44273</v>
+        <v>44323</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,11 +4840,11 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N56" t="n">
         <v>14000</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44265</v>
+        <v>44326</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P57" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44327</v>
+        <v>44315</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="N58" t="n">
         <v>15000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>15000</v>
+        <v>15619</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44327</v>
+        <v>44705</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N25" t="n">
         <v>15000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44266</v>
+        <v>44321</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>18400</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1150</v>
+        <v>938</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44237</v>
+        <v>44266</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44221</v>
+        <v>44237</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N30" t="n">
         <v>25000</v>
@@ -2777,19 +2777,19 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44270</v>
+        <v>44221</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P31" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>625</v>
+        <v>1389</v>
       </c>
       <c r="T31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44249</v>
+        <v>44270</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44588</v>
+        <v>44249</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N33" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44244</v>
+        <v>44588</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O34" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P34" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44277</v>
+        <v>44244</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44418</v>
+        <v>44277</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44330</v>
+        <v>44418</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,11 +3320,11 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N37" t="n">
         <v>30000</v>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>1875</v>
       </c>
       <c r="T37" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44677</v>
+        <v>44330</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T38" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44238</v>
+        <v>44677</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O39" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P39" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44280</v>
+        <v>44238</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N40" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N41" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O41" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P41" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1875</v>
+        <v>1250</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44637</v>
+        <v>44389</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P42" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44301</v>
+        <v>44637</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N43" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O43" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P43" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N44" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O44" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P44" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44650</v>
+        <v>44301</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N45" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O45" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P45" t="n">
-        <v>19333</v>
+        <v>19000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1208</v>
+        <v>1188</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44273</v>
+        <v>44650</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O46" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P46" t="n">
-        <v>14000</v>
+        <v>19333</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>875</v>
+        <v>1208</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44658</v>
+        <v>44273</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N47" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P47" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1062</v>
+        <v>875</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44251</v>
+        <v>44658</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P48" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44267</v>
+        <v>44251</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N49" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
         <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44603</v>
+        <v>44267</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N50" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O50" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>17500</v>
+        <v>15400</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1094</v>
+        <v>962</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44427</v>
+        <v>44603</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N51" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="O51" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="P51" t="n">
-        <v>40000</v>
+        <v>17500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>2500</v>
+        <v>1094</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44601</v>
+        <v>44427</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4520,24 +4520,24 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N52" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="O52" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="P52" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1389</v>
+        <v>2500</v>
       </c>
       <c r="T52" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N53" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O53" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P53" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T53" t="n">
         <v>18</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44606</v>
+        <v>44601</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,24 +4680,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>80</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P54" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44594</v>
+        <v>44606</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N55" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O55" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44323</v>
+        <v>44594</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44326</v>
+        <v>44323</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N57" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P57" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44315</v>
+        <v>44326</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,31 +5004,111 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N58" t="n">
         <v>15000</v>
       </c>
       <c r="O58" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P58" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S58" t="n">
+        <v>938</v>
+      </c>
+      <c r="T58" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>105</v>
+      </c>
+      <c r="N59" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O59" t="n">
         <v>16000</v>
       </c>
-      <c r="P58" t="n">
+      <c r="P59" t="n">
         <v>15619</v>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Provincia de Los Andes</t>
-        </is>
-      </c>
-      <c r="S58" t="n">
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S59" t="n">
         <v>976</v>
       </c>
-      <c r="T58" t="n">
+      <c r="T59" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44258</v>
+        <v>44707</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>19273</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>889</v>
+        <v>1205</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44274</v>
+        <v>44258</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
         <v>16000</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44624</v>
+        <v>44274</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>17467</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>970</v>
+        <v>875</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44663</v>
+        <v>44624</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>17467</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="T16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44596</v>
+        <v>44663</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44649</v>
+        <v>44596</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44306</v>
+        <v>44649</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44236</v>
+        <v>44306</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1562</v>
+        <v>1375</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44595</v>
+        <v>44236</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44432</v>
+        <v>44595</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="N23" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44705</v>
+        <v>44432</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="T24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44327</v>
+        <v>44705</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
         <v>15000</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44266</v>
+        <v>44321</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>18400</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1150</v>
+        <v>938</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44237</v>
+        <v>44266</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>20</v>
       </c>
       <c r="N30" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44221</v>
+        <v>44237</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
         <v>25000</v>
@@ -2857,19 +2857,19 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44270</v>
+        <v>44221</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>625</v>
+        <v>1389</v>
       </c>
       <c r="T32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44249</v>
+        <v>44270</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44588</v>
+        <v>44249</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N34" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44244</v>
+        <v>44588</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O35" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44277</v>
+        <v>44244</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44418</v>
+        <v>44277</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44330</v>
+        <v>44418</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,11 +3400,11 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N38" t="n">
         <v>30000</v>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1500</v>
+        <v>1875</v>
       </c>
       <c r="T38" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44677</v>
+        <v>44330</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N39" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O39" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P39" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T39" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44238</v>
+        <v>44677</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O40" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P40" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44280</v>
+        <v>44238</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N41" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P41" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O42" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P42" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1875</v>
+        <v>1250</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44637</v>
+        <v>44389</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O43" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P43" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44301</v>
+        <v>44637</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N44" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O44" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P44" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N45" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O45" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P45" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44650</v>
+        <v>44301</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N46" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O46" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P46" t="n">
-        <v>19333</v>
+        <v>19000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1208</v>
+        <v>1188</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44273</v>
+        <v>44650</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O47" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P47" t="n">
-        <v>14000</v>
+        <v>19333</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>875</v>
+        <v>1208</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44658</v>
+        <v>44273</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N48" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O48" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P48" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1062</v>
+        <v>875</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44251</v>
+        <v>44658</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44267</v>
+        <v>44251</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O50" t="n">
         <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44603</v>
+        <v>44267</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N51" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O51" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>17500</v>
+        <v>15400</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1094</v>
+        <v>962</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44427</v>
+        <v>44603</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N52" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="O52" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="P52" t="n">
-        <v>40000</v>
+        <v>17500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>2500</v>
+        <v>1094</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44601</v>
+        <v>44427</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N53" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="O53" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="P53" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1389</v>
+        <v>2500</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N54" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O54" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P54" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T54" t="n">
         <v>18</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44606</v>
+        <v>44601</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,24 +4760,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
         <v>80</v>
       </c>
       <c r="N55" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P55" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T55" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44594</v>
+        <v>44606</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44323</v>
+        <v>44594</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44326</v>
+        <v>44323</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N58" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P58" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44315</v>
+        <v>44326</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,31 +5084,111 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
         <v>15000</v>
       </c>
       <c r="O59" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P59" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S59" t="n">
+        <v>938</v>
+      </c>
+      <c r="T59" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>105</v>
+      </c>
+      <c r="N60" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O60" t="n">
         <v>16000</v>
       </c>
-      <c r="P59" t="n">
+      <c r="P60" t="n">
         <v>15619</v>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Provincia de Los Andes</t>
-        </is>
-      </c>
-      <c r="S59" t="n">
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S60" t="n">
         <v>976</v>
       </c>
-      <c r="T59" t="n">
+      <c r="T60" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44624</v>
+        <v>44708</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P16" t="n">
-        <v>17467</v>
+        <v>19000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>970</v>
+        <v>1188</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44663</v>
+        <v>44624</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>17467</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="T17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44596</v>
+        <v>44663</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44649</v>
+        <v>44596</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44306</v>
+        <v>44649</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P21" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44236</v>
+        <v>44306</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1562</v>
+        <v>1375</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44595</v>
+        <v>44236</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44432</v>
+        <v>44595</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="N24" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44705</v>
+        <v>44432</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="P25" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="T25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44327</v>
+        <v>44705</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N27" t="n">
         <v>15000</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44266</v>
+        <v>44321</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>18400</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1150</v>
+        <v>938</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44237</v>
+        <v>44266</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44221</v>
+        <v>44237</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
         <v>25000</v>
@@ -2937,19 +2937,19 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44270</v>
+        <v>44221</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P33" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>625</v>
+        <v>1389</v>
       </c>
       <c r="T33" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44249</v>
+        <v>44270</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44588</v>
+        <v>44249</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44244</v>
+        <v>44588</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O36" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44277</v>
+        <v>44244</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N37" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44418</v>
+        <v>44277</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44330</v>
+        <v>44418</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N39" t="n">
         <v>30000</v>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1500</v>
+        <v>1875</v>
       </c>
       <c r="T39" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44677</v>
+        <v>44330</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N40" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T40" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44238</v>
+        <v>44677</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O41" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P41" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44280</v>
+        <v>44238</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N42" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P42" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N43" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O43" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P43" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1875</v>
+        <v>1250</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44637</v>
+        <v>44389</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O44" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P44" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44301</v>
+        <v>44637</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N45" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N46" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O46" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P46" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44650</v>
+        <v>44301</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N47" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O47" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P47" t="n">
-        <v>19333</v>
+        <v>19000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1208</v>
+        <v>1188</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44273</v>
+        <v>44650</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N48" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O48" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P48" t="n">
-        <v>14000</v>
+        <v>19333</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>875</v>
+        <v>1208</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44658</v>
+        <v>44273</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N49" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P49" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1062</v>
+        <v>875</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44251</v>
+        <v>44658</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N50" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P50" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44267</v>
+        <v>44251</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N51" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
         <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44603</v>
+        <v>44267</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N52" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>17500</v>
+        <v>15400</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1094</v>
+        <v>962</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44427</v>
+        <v>44603</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N53" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="O53" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="P53" t="n">
-        <v>40000</v>
+        <v>17500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>2500</v>
+        <v>1094</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44601</v>
+        <v>44427</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,24 +4680,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N54" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="O54" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="P54" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1389</v>
+        <v>2500</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N55" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O55" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P55" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44606</v>
+        <v>44601</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,24 +4840,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>80</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44594</v>
+        <v>44606</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N57" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44323</v>
+        <v>44594</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44326</v>
+        <v>44323</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N59" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P59" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44315</v>
+        <v>44326</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,31 +5164,111 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
         <v>15000</v>
       </c>
       <c r="O60" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P60" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S60" t="n">
+        <v>938</v>
+      </c>
+      <c r="T60" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>105</v>
+      </c>
+      <c r="N61" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O61" t="n">
         <v>16000</v>
       </c>
-      <c r="P60" t="n">
+      <c r="P61" t="n">
         <v>15619</v>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Provincia de Los Andes</t>
-        </is>
-      </c>
-      <c r="S60" t="n">
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S61" t="n">
         <v>976</v>
       </c>
-      <c r="T60" t="n">
+      <c r="T61" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44595</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
         <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44677</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>44236</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>1562</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44630</v>
+        <v>44253</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44265</v>
+        <v>44301</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44284</v>
+        <v>44301</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1125</v>
+        <v>1188</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44235</v>
+        <v>44266</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>18400</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1562</v>
+        <v>1150</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44266</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>15000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44253</v>
+        <v>44266</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44707</v>
+        <v>44270</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1327,13 +1327,13 @@
         <v>55</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>19273</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1205</v>
+        <v>625</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44258</v>
+        <v>44237</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>889</v>
+        <v>1562</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44274</v>
+        <v>44606</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44274</v>
+        <v>44594</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44708</v>
+        <v>44707</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>19000</v>
+        <v>19273</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1188</v>
+        <v>1205</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44624</v>
+        <v>44244</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>17467</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>970</v>
+        <v>875</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44663</v>
+        <v>44327</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44596</v>
+        <v>44705</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
         <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>19333</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1208</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44649</v>
+        <v>44267</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>14000</v>
+        <v>15400</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>875</v>
+        <v>962</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44306</v>
+        <v>44389</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1375</v>
+        <v>1875</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44236</v>
+        <v>44294</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N23" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1562</v>
+        <v>938</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44595</v>
+        <v>44319</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44432</v>
+        <v>44588</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2500</v>
+        <v>1562</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44705</v>
+        <v>44280</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,11 +2440,11 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N26" t="n">
         <v>20000</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44327</v>
+        <v>44258</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>938</v>
+        <v>889</v>
       </c>
       <c r="T27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44321</v>
+        <v>44235</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44266</v>
+        <v>44624</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N29" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O29" t="n">
         <v>18000</v>
       </c>
-      <c r="O29" t="n">
-        <v>19000</v>
-      </c>
       <c r="P29" t="n">
-        <v>18400</v>
+        <v>17467</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1150</v>
+        <v>970</v>
       </c>
       <c r="T29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44266</v>
+        <v>44427</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44266</v>
+        <v>44326</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44237</v>
+        <v>44306</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1562</v>
+        <v>1375</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44221</v>
+        <v>44425</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="O33" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="P33" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1389</v>
+        <v>2500</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44270</v>
+        <v>44658</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>625</v>
+        <v>1062</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44249</v>
+        <v>44637</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44588</v>
+        <v>44273</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N36" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P36" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44244</v>
+        <v>44649</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44277</v>
+        <v>44649</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P38" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44418</v>
+        <v>44432</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="O39" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="P39" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T39" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44330</v>
+        <v>44320</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1500</v>
+        <v>875</v>
       </c>
       <c r="T40" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44677</v>
+        <v>44315</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="N41" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>20000</v>
+        <v>15619</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1250</v>
+        <v>976</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44238</v>
+        <v>44596</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O42" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44280</v>
+        <v>44630</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O43" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P43" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1250</v>
+        <v>1062</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44389</v>
+        <v>44435</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3887,17 +3887,17 @@
         <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="O44" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="P44" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T44" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44637</v>
+        <v>44418</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44301</v>
+        <v>44284</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O46" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P46" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1375</v>
+        <v>1125</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44301</v>
+        <v>44663</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N47" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O47" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1188</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44650</v>
+        <v>44274</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N48" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O48" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>19333</v>
+        <v>16000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1208</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N49" t="n">
         <v>14000</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44658</v>
+        <v>44330</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N50" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="O50" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="P50" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1062</v>
+        <v>1500</v>
       </c>
       <c r="T50" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44251</v>
+        <v>44221</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,32 +4444,32 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T51" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44267</v>
+        <v>44708</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P52" t="n">
-        <v>15400</v>
+        <v>19000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>962</v>
+        <v>1188</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44427</v>
+        <v>44321</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O54" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P54" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44601</v>
+        <v>44277</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,24 +4760,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N55" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O55" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T55" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44601</v>
+        <v>44265</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,20 +4844,20 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4869,7 +4869,7 @@
         <v>1000</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44606</v>
+        <v>44249</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N57" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44594</v>
+        <v>44323</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="N58" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P58" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44323</v>
+        <v>44251</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O59" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44326</v>
+        <v>44601</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5160,24 +5160,24 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N60" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P60" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>938</v>
+        <v>1389</v>
       </c>
       <c r="T60" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44315</v>
+        <v>44601</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O61" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P61" t="n">
-        <v>15619</v>
+        <v>18000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="T61" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
         <v>16000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44249</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44677</v>
+        <v>44595</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
         <v>25000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44253</v>
+        <v>44284</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>44277</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44301</v>
+        <v>44663</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1188</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44266</v>
+        <v>44323</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>18400</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1150</v>
+        <v>875</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44266</v>
+        <v>44425</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44266</v>
+        <v>44427</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44270</v>
+        <v>44274</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44237</v>
+        <v>44274</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44606</v>
+        <v>44705</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44594</v>
+        <v>44326</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44707</v>
+        <v>44588</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>19273</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1205</v>
+        <v>1562</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44244</v>
+        <v>44280</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44327</v>
+        <v>44270</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44705</v>
+        <v>44650</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
         <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>19333</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1208</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44650</v>
+        <v>44596</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>19333</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1208</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44267</v>
+        <v>44432</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P21" t="n">
-        <v>15400</v>
+        <v>45000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>962</v>
+        <v>2500</v>
       </c>
       <c r="T21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44389</v>
+        <v>44707</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>19273</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1875</v>
+        <v>1205</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44294</v>
+        <v>44319</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,13 +2204,13 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
         <v>15000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44319</v>
+        <v>44327</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
         <v>15000</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44588</v>
+        <v>44320</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2367,13 +2367,13 @@
         <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44280</v>
+        <v>44301</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44258</v>
+        <v>44301</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>889</v>
+        <v>1188</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N28" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P28" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44624</v>
+        <v>44236</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N29" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>17467</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>970</v>
+        <v>1562</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44427</v>
+        <v>44677</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N30" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44326</v>
+        <v>44637</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N31" t="n">
         <v>15000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44306</v>
+        <v>44658</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1375</v>
+        <v>1062</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44425</v>
+        <v>44624</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="N33" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="O33" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="P33" t="n">
-        <v>40000</v>
+        <v>17467</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="T33" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44658</v>
+        <v>44251</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N34" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44637</v>
+        <v>44306</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44273</v>
+        <v>44330</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,24 +3240,24 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>875</v>
+        <v>1500</v>
       </c>
       <c r="T36" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44649</v>
+        <v>44253</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N37" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44649</v>
+        <v>44708</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O38" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P38" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>875</v>
+        <v>1188</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44432</v>
+        <v>44235</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,36 +3480,36 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N39" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="O39" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2500</v>
+        <v>1562</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44315</v>
+        <v>44601</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P41" t="n">
-        <v>15619</v>
+        <v>25000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>976</v>
+        <v>1389</v>
       </c>
       <c r="T41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44596</v>
+        <v>44601</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P42" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3749,7 +3749,7 @@
         <v>1000</v>
       </c>
       <c r="T42" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44630</v>
+        <v>44265</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O43" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44435</v>
+        <v>44630</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,24 +3880,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="O44" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="P44" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2500</v>
+        <v>1062</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="O45" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="P45" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T45" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44284</v>
+        <v>44649</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N46" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O46" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P46" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1125</v>
+        <v>1250</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44663</v>
+        <v>44649</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N47" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P47" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44274</v>
+        <v>44294</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N48" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O48" t="n">
         <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44274</v>
+        <v>44315</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O49" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>14000</v>
+        <v>15619</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>875</v>
+        <v>976</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44330</v>
+        <v>44418</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,11 +4360,11 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N50" t="n">
         <v>30000</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1500</v>
+        <v>1875</v>
       </c>
       <c r="T50" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44221</v>
+        <v>44389</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,36 +4440,36 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
         <v>30</v>
       </c>
       <c r="N51" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O51" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P51" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1389</v>
+        <v>1875</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44708</v>
+        <v>44594</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N52" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O52" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1188</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44321</v>
+        <v>44266</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N54" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O54" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P54" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N55" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O55" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44249</v>
+        <v>44221</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4924,32 +4924,32 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N57" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P57" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T57" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44323</v>
+        <v>44273</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,11 +5000,11 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N58" t="n">
         <v>14000</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44251</v>
+        <v>44244</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N59" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P59" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44601</v>
+        <v>44606</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5160,24 +5160,24 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N60" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P60" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1389</v>
+        <v>625</v>
       </c>
       <c r="T60" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44601</v>
+        <v>44267</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O61" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>18000</v>
+        <v>15400</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="T61" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44258</v>
+        <v>44649</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -527,17 +527,17 @@
         <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>889</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44249</v>
+        <v>44649</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44595</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44237</v>
+        <v>44253</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44284</v>
+        <v>44266</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
         <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1125</v>
+        <v>1150</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44663</v>
+        <v>44266</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44323</v>
+        <v>44315</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>14000</v>
+        <v>15619</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>875</v>
+        <v>976</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44425</v>
+        <v>44588</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>1562</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44427</v>
+        <v>44606</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2500</v>
+        <v>625</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44274</v>
+        <v>44320</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44274</v>
+        <v>44677</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44705</v>
+        <v>44221</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1389</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44588</v>
+        <v>44301</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1562</v>
+        <v>1188</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44280</v>
+        <v>44594</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44270</v>
+        <v>44274</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44650</v>
+        <v>44274</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>19333</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1208</v>
+        <v>875</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="N20" t="n">
         <v>16000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44432</v>
+        <v>44236</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N21" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="O21" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2500</v>
+        <v>1562</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44707</v>
+        <v>44306</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>19273</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1205</v>
+        <v>1375</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44319</v>
+        <v>44601</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>938</v>
+        <v>1389</v>
       </c>
       <c r="T23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44327</v>
+        <v>44601</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44320</v>
+        <v>44258</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,20 +2364,20 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="T25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44301</v>
+        <v>44624</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>22000</v>
+        <v>17467</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1375</v>
+        <v>970</v>
       </c>
       <c r="T26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44301</v>
+        <v>44280</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O27" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44236</v>
+        <v>44251</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44677</v>
+        <v>44267</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>20000</v>
+        <v>15400</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1250</v>
+        <v>962</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44637</v>
+        <v>44427</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2847,13 +2847,13 @@
         <v>65</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44658</v>
+        <v>44277</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N32" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44624</v>
+        <v>44708</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N33" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O33" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P33" t="n">
-        <v>17467</v>
+        <v>19000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>970</v>
+        <v>1188</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44251</v>
+        <v>44630</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44306</v>
+        <v>44705</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1375</v>
+        <v>1250</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44330</v>
+        <v>44603</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,24 +3240,24 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>17500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1500</v>
+        <v>1094</v>
       </c>
       <c r="T36" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44253</v>
+        <v>44273</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3327,13 +3327,13 @@
         <v>55</v>
       </c>
       <c r="N37" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44708</v>
+        <v>44327</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1188</v>
+        <v>938</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44235</v>
+        <v>44650</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N39" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P39" t="n">
-        <v>25000</v>
+        <v>19333</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1562</v>
+        <v>1208</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44321</v>
+        <v>44432</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T40" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44601</v>
+        <v>44389</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3647,17 +3647,17 @@
         <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O41" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P41" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1389</v>
+        <v>1875</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44601</v>
+        <v>44330</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N42" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="O42" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="P42" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44265</v>
+        <v>44294</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N43" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
         <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44630</v>
+        <v>44249</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N44" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O44" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44649</v>
+        <v>44319</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N46" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P46" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44649</v>
+        <v>44237</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O47" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P47" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44294</v>
+        <v>44418</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N48" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P48" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44315</v>
+        <v>44284</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="N49" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P49" t="n">
-        <v>15619</v>
+        <v>18000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>976</v>
+        <v>1125</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44418</v>
+        <v>44270</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N50" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1875</v>
+        <v>625</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44389</v>
+        <v>44323</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
         <v>30</v>
       </c>
       <c r="N51" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P51" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1875</v>
+        <v>875</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44594</v>
+        <v>44326</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44603</v>
+        <v>44321</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O53" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P53" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1094</v>
+        <v>938</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44266</v>
+        <v>44596</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N54" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O54" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44266</v>
+        <v>44658</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N55" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P55" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44266</v>
+        <v>44235</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>625</v>
+        <v>1562</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44221</v>
+        <v>44707</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4924,32 +4924,32 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N57" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O57" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P57" t="n">
-        <v>25000</v>
+        <v>19273</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1389</v>
+        <v>1205</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44273</v>
+        <v>44265</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44244</v>
+        <v>44637</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O59" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P59" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44606</v>
+        <v>44244</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P60" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44267</v>
+        <v>44663</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O61" t="n">
         <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>962</v>
+        <v>1000</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44649</v>
+        <v>44594</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44649</v>
+        <v>44330</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>875</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44650</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>40000</v>
+        <v>19333</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2500</v>
+        <v>1208</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44253</v>
+        <v>44596</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44266</v>
+        <v>44321</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18400</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1150</v>
+        <v>938</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44266</v>
+        <v>44277</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44266</v>
+        <v>44251</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44315</v>
+        <v>44284</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>15619</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>976</v>
+        <v>1125</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44588</v>
+        <v>44708</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1562</v>
+        <v>1188</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44606</v>
+        <v>44270</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
         <v>10000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44320</v>
+        <v>44427</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44677</v>
+        <v>44244</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44221</v>
+        <v>44306</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44301</v>
+        <v>44649</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1375</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44301</v>
+        <v>44649</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1188</v>
+        <v>875</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44594</v>
+        <v>44588</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44274</v>
+        <v>44249</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="N18" t="n">
         <v>16000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44274</v>
+        <v>44265</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44595</v>
+        <v>44601</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44236</v>
+        <v>44601</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44306</v>
+        <v>44677</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1375</v>
+        <v>1250</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44601</v>
+        <v>44301</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N23" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44601</v>
+        <v>44301</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P24" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>1188</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44258</v>
+        <v>44237</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>889</v>
+        <v>1562</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44624</v>
+        <v>44266</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P26" t="n">
-        <v>17467</v>
+        <v>18400</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>970</v>
+        <v>1150</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44280</v>
+        <v>44266</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N27" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44238</v>
+        <v>44266</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44251</v>
+        <v>44267</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
         <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44267</v>
+        <v>44235</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>15400</v>
+        <v>25000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>962</v>
+        <v>1562</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44427</v>
+        <v>44663</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N31" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44277</v>
+        <v>44319</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44708</v>
+        <v>44274</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1188</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44630</v>
+        <v>44274</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1062</v>
+        <v>875</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44705</v>
+        <v>44432</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,24 +3160,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="P35" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="T35" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44603</v>
+        <v>44595</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="N36" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1094</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44327</v>
+        <v>44606</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44650</v>
+        <v>44253</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N39" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>19333</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1208</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44389</v>
+        <v>44707</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N41" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="O41" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P41" t="n">
-        <v>30000</v>
+        <v>19273</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1875</v>
+        <v>1205</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44330</v>
+        <v>44294</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T42" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44294</v>
+        <v>44236</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P43" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44249</v>
+        <v>44603</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="N44" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P44" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>1094</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44435</v>
+        <v>44630</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="O45" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="P45" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>2500</v>
+        <v>1062</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44319</v>
+        <v>44327</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N46" t="n">
         <v>15000</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44237</v>
+        <v>44658</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O47" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="P47" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1562</v>
+        <v>1062</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44284</v>
+        <v>44389</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N49" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="O49" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="P49" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1125</v>
+        <v>1875</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44270</v>
+        <v>44425</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="P50" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44323</v>
+        <v>44280</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N51" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O51" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P51" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44326</v>
+        <v>44323</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P52" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44321</v>
+        <v>44705</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N53" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O53" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P53" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44596</v>
+        <v>44624</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,20 +4684,20 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N54" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P54" t="n">
-        <v>16000</v>
+        <v>17467</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="T54" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44658</v>
+        <v>44637</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N55" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O55" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1062</v>
+        <v>938</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44235</v>
+        <v>44221</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N56" t="n">
         <v>25000</v>
@@ -4857,19 +4857,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1562</v>
+        <v>1389</v>
       </c>
       <c r="T56" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44707</v>
+        <v>44315</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="N57" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O57" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>19273</v>
+        <v>15619</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1205</v>
+        <v>976</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44265</v>
+        <v>44258</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N58" t="n">
         <v>16000</v>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T58" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44637</v>
+        <v>44320</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N59" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P59" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44244</v>
+        <v>44326</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O60" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44663</v>
+        <v>44238</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N61" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P61" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44594</v>
+        <v>44330</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44330</v>
+        <v>44251</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44650</v>
+        <v>44315</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>19333</v>
+        <v>15619</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1208</v>
+        <v>976</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44596</v>
+        <v>44705</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44321</v>
+        <v>44650</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>19333</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>938</v>
+        <v>1208</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44277</v>
+        <v>44273</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44251</v>
+        <v>44588</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44284</v>
+        <v>44658</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1125</v>
+        <v>1062</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44708</v>
+        <v>44418</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1188</v>
+        <v>1875</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44270</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44427</v>
+        <v>44595</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="N12" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44306</v>
+        <v>44277</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44649</v>
+        <v>44630</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1062</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44649</v>
+        <v>44319</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44588</v>
+        <v>44258</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1562</v>
+        <v>889</v>
       </c>
       <c r="T17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44249</v>
+        <v>44663</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N18" t="n">
         <v>16000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44265</v>
+        <v>44677</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44601</v>
+        <v>44294</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1389</v>
+        <v>938</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44601</v>
+        <v>44637</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44677</v>
+        <v>44707</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2127,13 +2127,13 @@
         <v>55</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
         <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>20000</v>
+        <v>19273</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1250</v>
+        <v>1205</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44301</v>
+        <v>44236</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P23" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1375</v>
+        <v>1562</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44301</v>
+        <v>44320</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1188</v>
+        <v>875</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44237</v>
+        <v>44606</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44266</v>
+        <v>44323</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P26" t="n">
-        <v>18400</v>
+        <v>14000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1150</v>
+        <v>875</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44266</v>
+        <v>44270</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44266</v>
+        <v>44603</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P28" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>625</v>
+        <v>1094</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44267</v>
+        <v>44624</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,20 +2684,20 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P29" t="n">
-        <v>15400</v>
+        <v>17467</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="T29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44235</v>
+        <v>44249</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N30" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44663</v>
+        <v>44284</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44319</v>
+        <v>44221</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>938</v>
+        <v>1389</v>
       </c>
       <c r="T32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44274</v>
+        <v>44306</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44274</v>
+        <v>44435</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O34" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P34" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T34" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44432</v>
+        <v>44274</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N35" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44595</v>
+        <v>44274</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44273</v>
+        <v>44432</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44606</v>
+        <v>44265</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44253</v>
+        <v>44601</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T39" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44435</v>
+        <v>44601</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N40" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="O40" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="P40" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44707</v>
+        <v>44267</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>19273</v>
+        <v>15400</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1205</v>
+        <v>962</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44294</v>
+        <v>44594</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O42" t="n">
         <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44236</v>
+        <v>44327</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N43" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O43" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P43" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1562</v>
+        <v>938</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44603</v>
+        <v>44649</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N44" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O44" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P44" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1094</v>
+        <v>1250</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44630</v>
+        <v>44649</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P45" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1062</v>
+        <v>875</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44327</v>
+        <v>44389</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N46" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44658</v>
+        <v>44235</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N47" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O47" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P47" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1062</v>
+        <v>1562</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44418</v>
+        <v>44427</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N48" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="O48" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="P48" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44389</v>
+        <v>44708</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N49" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O49" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="P49" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1875</v>
+        <v>1188</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44425</v>
+        <v>44280</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N50" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O50" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="P50" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44280</v>
+        <v>44237</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N51" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O51" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P51" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44323</v>
+        <v>44253</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O52" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44705</v>
+        <v>44301</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N53" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O53" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P53" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44624</v>
+        <v>44301</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,20 +4684,20 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N54" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O54" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P54" t="n">
-        <v>17467</v>
+        <v>19000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>970</v>
+        <v>1188</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44637</v>
+        <v>44266</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N55" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P55" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44221</v>
+        <v>44266</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,32 +4844,32 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N56" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O56" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1389</v>
+        <v>938</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44315</v>
+        <v>44266</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="N57" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>15619</v>
+        <v>10000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>976</v>
+        <v>625</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44258</v>
+        <v>44238</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5007,17 +5007,17 @@
         <v>65</v>
       </c>
       <c r="N58" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P58" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="T58" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44320</v>
+        <v>44596</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O59" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44326</v>
+        <v>44425</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N60" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P60" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44238</v>
+        <v>44321</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O61" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1375</v>
       </c>
       <c r="T2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44251</v>
+        <v>44274</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
         <v>16000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44315</v>
+        <v>44274</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>15619</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>976</v>
+        <v>875</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44705</v>
+        <v>44266</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>18400</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44650</v>
+        <v>44266</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>19333</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1208</v>
+        <v>938</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44273</v>
+        <v>44266</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44588</v>
+        <v>44253</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44658</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44418</v>
+        <v>44603</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1167,13 +1167,13 @@
         <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>17500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1875</v>
+        <v>1094</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44326</v>
+        <v>44588</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44595</v>
+        <v>44280</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44244</v>
+        <v>44637</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44277</v>
+        <v>44630</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44630</v>
+        <v>44301</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1062</v>
+        <v>1375</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44319</v>
+        <v>44301</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44258</v>
+        <v>44595</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="N17" t="n">
         <v>16000</v>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44663</v>
+        <v>44596</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44677</v>
+        <v>44624</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>17467</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>970</v>
       </c>
       <c r="T19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44294</v>
+        <v>44265</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
         <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44637</v>
+        <v>44236</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P22" t="n">
-        <v>19273</v>
+        <v>19000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1205</v>
+        <v>1188</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44236</v>
+        <v>44389</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O23" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P23" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1562</v>
+        <v>1875</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44320</v>
+        <v>44284</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44606</v>
+        <v>44677</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44323</v>
+        <v>44294</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N26" t="n">
         <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44270</v>
+        <v>44601</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>625</v>
+        <v>1389</v>
       </c>
       <c r="T27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44603</v>
+        <v>44601</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N28" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O28" t="n">
         <v>18000</v>
       </c>
       <c r="P28" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1094</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44624</v>
+        <v>44663</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,20 +2684,20 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N29" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O29" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>17467</v>
+        <v>16000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44249</v>
+        <v>44244</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44284</v>
+        <v>44649</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N31" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O31" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1125</v>
+        <v>1250</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44221</v>
+        <v>44649</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,36 +2920,36 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1389</v>
+        <v>875</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44306</v>
+        <v>44330</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T33" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44435</v>
+        <v>44606</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N34" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2500</v>
+        <v>625</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44274</v>
+        <v>44707</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>19273</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>1205</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44274</v>
+        <v>44258</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,20 +3244,20 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="T36" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44432</v>
+        <v>44323</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44265</v>
+        <v>44658</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P38" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44601</v>
+        <v>44705</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P39" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1389</v>
+        <v>1250</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44601</v>
+        <v>44432</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="O40" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="P40" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44267</v>
+        <v>44425</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P41" t="n">
-        <v>15400</v>
+        <v>40000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>962</v>
+        <v>2500</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44594</v>
+        <v>44427</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="N42" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P42" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
         <v>15000</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44649</v>
+        <v>44594</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N44" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O44" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44649</v>
+        <v>44321</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44389</v>
+        <v>44270</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1875</v>
+        <v>625</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44235</v>
+        <v>44650</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N47" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O47" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P47" t="n">
-        <v>25000</v>
+        <v>19333</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1562</v>
+        <v>1208</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44427</v>
+        <v>44418</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N48" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="O48" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="P48" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>2500</v>
+        <v>1875</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44708</v>
+        <v>44249</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="N49" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1188</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44280</v>
+        <v>44315</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="N50" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O50" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>20000</v>
+        <v>15619</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1250</v>
+        <v>976</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44237</v>
+        <v>44327</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N51" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O51" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P51" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1562</v>
+        <v>938</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44253</v>
+        <v>44320</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N52" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P52" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44301</v>
+        <v>44235</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>55</v>
       </c>
       <c r="N53" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O53" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P53" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1375</v>
+        <v>1562</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44301</v>
+        <v>44237</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="N54" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O54" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P54" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1188</v>
+        <v>1562</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44266</v>
+        <v>44238</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N55" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P55" t="n">
-        <v>18400</v>
+        <v>14000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1150</v>
+        <v>875</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44266</v>
+        <v>44273</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N56" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P56" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N57" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>10000</v>
+        <v>15400</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>625</v>
+        <v>962</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44238</v>
+        <v>44221</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,32 +5004,32 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O58" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P58" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>875</v>
+        <v>1389</v>
       </c>
       <c r="T58" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44596</v>
+        <v>44435</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5080,24 +5080,24 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N59" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P59" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T59" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44425</v>
+        <v>44251</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N60" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O60" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P60" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44321</v>
+        <v>44319</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
         <v>15000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44306</v>
+        <v>44594</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44274</v>
+        <v>44284</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44274</v>
+        <v>44301</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>875</v>
+        <v>1375</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44266</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
         <v>19000</v>
       </c>
       <c r="P5" t="n">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1150</v>
+        <v>1188</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44266</v>
+        <v>44425</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>15400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>625</v>
+        <v>962</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44253</v>
+        <v>44658</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44432</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44603</v>
+        <v>44237</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1094</v>
+        <v>1562</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44588</v>
+        <v>44596</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44280</v>
+        <v>44251</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44637</v>
+        <v>44427</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1407,13 +1407,13 @@
         <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44630</v>
+        <v>44637</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1062</v>
+        <v>938</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44301</v>
+        <v>44389</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1188</v>
+        <v>1875</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44595</v>
+        <v>44320</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44596</v>
+        <v>44236</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44624</v>
+        <v>44650</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>17467</v>
+        <v>19333</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>970</v>
+        <v>1208</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N20" t="n">
         <v>16000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44236</v>
+        <v>44418</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1562</v>
+        <v>1875</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44708</v>
+        <v>44649</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44389</v>
+        <v>44649</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1875</v>
+        <v>875</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44284</v>
+        <v>44707</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N24" t="n">
         <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>18000</v>
+        <v>19273</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1125</v>
+        <v>1205</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44677</v>
+        <v>44294</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44294</v>
+        <v>44588</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44601</v>
+        <v>44221</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S27" t="n">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44601</v>
+        <v>44270</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N28" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44663</v>
+        <v>44624</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,20 +2684,20 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N29" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P29" t="n">
-        <v>16000</v>
+        <v>17467</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="T29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44244</v>
+        <v>44663</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44649</v>
+        <v>44323</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P31" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44649</v>
+        <v>44603</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O32" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>875</v>
+        <v>1094</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44330</v>
+        <v>44708</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N33" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O33" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="P33" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1500</v>
+        <v>1188</v>
       </c>
       <c r="T33" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44606</v>
+        <v>44280</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>80</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44707</v>
+        <v>44277</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N35" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>19273</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1205</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44258</v>
+        <v>44266</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,24 +3240,24 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>18400</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>889</v>
+        <v>1150</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44323</v>
+        <v>44266</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44658</v>
+        <v>44266</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44432</v>
+        <v>44321</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44425</v>
+        <v>44315</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="N41" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>40000</v>
+        <v>15619</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2500</v>
+        <v>976</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44427</v>
+        <v>44258</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3727,17 +3727,17 @@
         <v>65</v>
       </c>
       <c r="N42" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O42" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>2500</v>
+        <v>889</v>
       </c>
       <c r="T42" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N43" t="n">
         <v>15000</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,24 +3880,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P44" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T44" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44321</v>
+        <v>44601</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44270</v>
+        <v>44326</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44650</v>
+        <v>44606</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N47" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>19333</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1208</v>
+        <v>625</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44418</v>
+        <v>44265</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N48" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O48" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44249</v>
+        <v>44238</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44315</v>
+        <v>44235</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P50" t="n">
-        <v>15619</v>
+        <v>25000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>976</v>
+        <v>1562</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44327</v>
+        <v>44435</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N51" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="P51" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T51" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4527,13 +4527,13 @@
         <v>50</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44235</v>
+        <v>44253</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4607,13 +4607,13 @@
         <v>55</v>
       </c>
       <c r="N53" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O53" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44237</v>
+        <v>44595</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N54" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O54" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44238</v>
+        <v>44630</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O55" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P55" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44273</v>
+        <v>44677</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4847,13 +4847,13 @@
         <v>55</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O56" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P56" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44267</v>
+        <v>44273</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N57" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P57" t="n">
-        <v>15400</v>
+        <v>14000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>962</v>
+        <v>875</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44221</v>
+        <v>44330</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,36 +5000,36 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N58" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O58" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P58" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1389</v>
+        <v>1500</v>
       </c>
       <c r="T58" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44435</v>
+        <v>44274</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,20 +5084,20 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N59" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O59" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T59" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44251</v>
+        <v>44274</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N60" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O60" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P60" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44319</v>
+        <v>44244</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P61" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5272,6 +5272,86 @@
         <v>16</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>50</v>
+      </c>
+      <c r="N62" t="n">
+        <v>40000</v>
+      </c>
+      <c r="O62" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P62" t="n">
+        <v>40000</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S62" t="n">
+        <v>2222</v>
+      </c>
+      <c r="T62" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44594</v>
+        <v>44630</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44284</v>
+        <v>44266</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
         <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1125</v>
+        <v>1150</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44301</v>
+        <v>44266</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44266</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1188</v>
+        <v>625</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44425</v>
+        <v>44432</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="O6" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="P6" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -869,7 +869,7 @@
         <v>2500</v>
       </c>
       <c r="T6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44267</v>
+        <v>44238</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>15400</v>
+        <v>14000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>962</v>
+        <v>875</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44658</v>
+        <v>44320</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1062</v>
+        <v>875</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44432</v>
+        <v>44425</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="O9" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="P9" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1109,7 +1109,7 @@
         <v>2500</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44237</v>
+        <v>44244</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44596</v>
+        <v>44265</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
         <v>16000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44251</v>
+        <v>44624</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>17467</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="T12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44427</v>
+        <v>44319</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44637</v>
+        <v>44321</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44306</v>
+        <v>44595</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44389</v>
+        <v>44270</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1875</v>
+        <v>625</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44236</v>
+        <v>44274</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44650</v>
+        <v>44708</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1887,13 +1887,13 @@
         <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P19" t="n">
-        <v>19333</v>
+        <v>19000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1208</v>
+        <v>1188</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44249</v>
+        <v>44306</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44418</v>
+        <v>44235</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1875</v>
+        <v>1562</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44649</v>
+        <v>44418</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1250</v>
+        <v>1875</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44649</v>
+        <v>44253</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44707</v>
+        <v>44658</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P24" t="n">
-        <v>19273</v>
+        <v>17000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1205</v>
+        <v>1062</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44294</v>
+        <v>44677</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44588</v>
+        <v>44315</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N26" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>25000</v>
+        <v>15619</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1562</v>
+        <v>976</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44221</v>
+        <v>44323</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,36 +2520,36 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P27" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1389</v>
+        <v>875</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44270</v>
+        <v>44249</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44624</v>
+        <v>44663</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,20 +2684,20 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N29" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O29" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>17467</v>
+        <v>16000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44663</v>
+        <v>44637</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44323</v>
+        <v>44301</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>875</v>
+        <v>1375</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44603</v>
+        <v>44301</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N32" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P32" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1094</v>
+        <v>1188</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44708</v>
+        <v>44237</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O33" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P33" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1188</v>
+        <v>1562</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44280</v>
+        <v>44277</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44277</v>
+        <v>44649</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44266</v>
+        <v>44649</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P36" t="n">
-        <v>18400</v>
+        <v>14000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1150</v>
+        <v>875</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44266</v>
+        <v>44327</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N37" t="n">
         <v>15000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44266</v>
+        <v>44606</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N38" t="n">
         <v>10000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44705</v>
+        <v>44326</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O39" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44321</v>
+        <v>44236</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44315</v>
+        <v>44267</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="N41" t="n">
         <v>15000</v>
@@ -3653,7 +3653,7 @@
         <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>15619</v>
+        <v>15400</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44258</v>
+        <v>44435</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P42" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>889</v>
+        <v>2500</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44327</v>
+        <v>44389</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O43" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P43" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44601</v>
+        <v>44294</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,24 +3880,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N44" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1389</v>
+        <v>938</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44601</v>
+        <v>44251</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N45" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O45" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P45" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3989,7 +3989,7 @@
         <v>1000</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44326</v>
+        <v>44588</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N46" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P46" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44606</v>
+        <v>44330</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>625</v>
+        <v>1500</v>
       </c>
       <c r="T47" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44265</v>
+        <v>44601</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N48" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P48" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44238</v>
+        <v>44601</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O49" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P49" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44235</v>
+        <v>44596</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4367,13 +4367,13 @@
         <v>55</v>
       </c>
       <c r="N50" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O50" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44435</v>
+        <v>44427</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N51" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="O51" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="P51" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4469,7 +4469,7 @@
         <v>2500</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44319</v>
+        <v>44705</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P52" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44253</v>
+        <v>44594</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N53" t="n">
         <v>16000</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44595</v>
+        <v>44221</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,32 +4684,32 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N54" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P54" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T54" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44630</v>
+        <v>44284</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N55" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O55" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P55" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44677</v>
+        <v>44258</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,20 +4844,20 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N56" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1250</v>
+        <v>889</v>
       </c>
       <c r="T56" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44330</v>
+        <v>44603</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,24 +5000,24 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N58" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="O58" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="P58" t="n">
-        <v>30000</v>
+        <v>17500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1500</v>
+        <v>1094</v>
       </c>
       <c r="T58" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44274</v>
+        <v>44650</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N59" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P59" t="n">
-        <v>16000</v>
+        <v>19333</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1000</v>
+        <v>1208</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44274</v>
+        <v>44707</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N60" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O60" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P60" t="n">
-        <v>14000</v>
+        <v>19273</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>875</v>
+        <v>1205</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44244</v>
+        <v>44832</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,24 +5240,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O61" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P61" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>875</v>
+        <v>2222</v>
       </c>
       <c r="T61" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44832</v>
+        <v>44280</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,20 +5324,20 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N62" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O62" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="P62" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>2222</v>
+        <v>1250</v>
       </c>
       <c r="T62" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44658</v>
+        <v>44868</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="O24" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="P24" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1062</v>
+        <v>2500</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44677</v>
+        <v>44658</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P25" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1250</v>
+        <v>1062</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44315</v>
+        <v>44677</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>15619</v>
+        <v>20000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>976</v>
+        <v>1250</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44323</v>
+        <v>44315</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>15619</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>875</v>
+        <v>976</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44249</v>
+        <v>44323</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44663</v>
+        <v>44249</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N29" t="n">
         <v>16000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44637</v>
+        <v>44663</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44301</v>
+        <v>44637</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N32" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O32" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44237</v>
+        <v>44301</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="N33" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O33" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P33" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1562</v>
+        <v>1188</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44277</v>
+        <v>44237</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44649</v>
+        <v>44277</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O36" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P36" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44327</v>
+        <v>44649</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44606</v>
+        <v>44327</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44326</v>
+        <v>44606</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44236</v>
+        <v>44326</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1562</v>
+        <v>938</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44267</v>
+        <v>44236</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P41" t="n">
-        <v>15400</v>
+        <v>25000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>962</v>
+        <v>1562</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44435</v>
+        <v>44267</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N42" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>45000</v>
+        <v>15400</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>2500</v>
+        <v>962</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44389</v>
+        <v>44435</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3807,17 +3807,17 @@
         <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="O43" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="P43" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T43" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44294</v>
+        <v>44389</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P44" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44251</v>
+        <v>44294</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N45" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
         <v>16000</v>
       </c>
       <c r="P45" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44588</v>
+        <v>44251</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N46" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O46" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44330</v>
+        <v>44588</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N47" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O47" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P47" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1500</v>
+        <v>1562</v>
       </c>
       <c r="T47" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44601</v>
+        <v>44330</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,20 +4204,20 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N48" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O48" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P48" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1389</v>
+        <v>1500</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N49" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O49" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P49" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T49" t="n">
         <v>18</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44596</v>
+        <v>44601</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,20 +4364,20 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N50" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P50" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4389,7 +4389,7 @@
         <v>1000</v>
       </c>
       <c r="T50" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44427</v>
+        <v>44596</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N51" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44705</v>
+        <v>44427</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N52" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="O52" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="P52" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44594</v>
+        <v>44705</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="N53" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P53" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44221</v>
+        <v>44594</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,32 +4684,32 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N54" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O54" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44284</v>
+        <v>44221</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,32 +4764,32 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N55" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O55" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P55" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1125</v>
+        <v>1389</v>
       </c>
       <c r="T55" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44258</v>
+        <v>44284</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,20 +4844,20 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>889</v>
+        <v>1125</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44273</v>
+        <v>44258</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4924,20 +4924,20 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="T57" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44603</v>
+        <v>44273</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N58" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P58" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1094</v>
+        <v>875</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44650</v>
+        <v>44603</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N59" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O59" t="n">
         <v>18000</v>
       </c>
-      <c r="O59" t="n">
-        <v>20000</v>
-      </c>
       <c r="P59" t="n">
-        <v>19333</v>
+        <v>17500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1208</v>
+        <v>1094</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44707</v>
+        <v>44650</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N60" t="n">
         <v>18000</v>
@@ -5173,7 +5173,7 @@
         <v>20000</v>
       </c>
       <c r="P60" t="n">
-        <v>19273</v>
+        <v>19333</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44832</v>
+        <v>44707</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,24 +5240,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N61" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="O61" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="P61" t="n">
-        <v>40000</v>
+        <v>19273</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>2222</v>
+        <v>1205</v>
       </c>
       <c r="T61" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -5287,68 +5287,148 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>50</v>
+      </c>
+      <c r="N62" t="n">
+        <v>40000</v>
+      </c>
+      <c r="O62" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P62" t="n">
+        <v>40000</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S62" t="n">
+        <v>2222</v>
+      </c>
+      <c r="T62" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
         <v>44280</v>
       </c>
-      <c r="E62" t="n">
-        <v>9</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>100107</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>100107011</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="E63" t="n">
+        <v>9</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="M63" t="n">
         <v>80</v>
       </c>
-      <c r="N62" t="n">
+      <c r="N63" t="n">
         <v>20000</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O63" t="n">
         <v>20000</v>
       </c>
-      <c r="P62" t="n">
+      <c r="P63" t="n">
         <v>20000</v>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Provincia de Los Andes</t>
-        </is>
-      </c>
-      <c r="S62" t="n">
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S63" t="n">
         <v>1250</v>
       </c>
-      <c r="T62" t="n">
+      <c r="T63" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44630</v>
+        <v>44427</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="P2" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1062</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44266</v>
+        <v>44235</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>18400</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1150</v>
+        <v>1562</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44266</v>
+        <v>44277</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44266</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44432</v>
+        <v>44705</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44238</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44320</v>
+        <v>44253</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44425</v>
+        <v>44327</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1087,13 +1087,13 @@
         <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44244</v>
+        <v>44832</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>875</v>
+        <v>2222</v>
       </c>
       <c r="T10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44265</v>
+        <v>44270</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44624</v>
+        <v>44280</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>17467</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>970</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44319</v>
+        <v>44624</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>17467</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>938</v>
+        <v>970</v>
       </c>
       <c r="T13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44321</v>
+        <v>44319</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44595</v>
+        <v>44432</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="P15" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44270</v>
+        <v>44251</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1647,13 +1647,13 @@
         <v>55</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44274</v>
+        <v>44588</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44274</v>
+        <v>44266</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>18400</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>875</v>
+        <v>1150</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44708</v>
+        <v>44266</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1188</v>
+        <v>938</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44306</v>
+        <v>44266</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1375</v>
+        <v>625</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44235</v>
+        <v>44637</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1562</v>
+        <v>938</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44418</v>
+        <v>44677</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1875</v>
+        <v>1250</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44253</v>
+        <v>44249</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N23" t="n">
         <v>16000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44868</v>
+        <v>44606</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N24" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2500</v>
+        <v>625</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44658</v>
+        <v>44320</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1062</v>
+        <v>875</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44677</v>
+        <v>44708</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P26" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44315</v>
+        <v>44594</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
         <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>15619</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44323</v>
+        <v>44707</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O28" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>14000</v>
+        <v>19273</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>875</v>
+        <v>1205</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44249</v>
+        <v>44273</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N29" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P29" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44663</v>
+        <v>44601</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,24 +2760,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44637</v>
+        <v>44601</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44301</v>
+        <v>44221</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,36 +2920,36 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1375</v>
+        <v>1389</v>
       </c>
       <c r="T32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44301</v>
+        <v>44418</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O33" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="P33" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1188</v>
+        <v>1875</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44237</v>
+        <v>44603</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O34" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P34" t="n">
-        <v>25000</v>
+        <v>17500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1562</v>
+        <v>1094</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44649</v>
+        <v>44663</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N36" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44649</v>
+        <v>44258</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="T37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44327</v>
+        <v>44237</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P38" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44606</v>
+        <v>44330</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P39" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>625</v>
+        <v>1500</v>
       </c>
       <c r="T39" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44326</v>
+        <v>44284</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44236</v>
+        <v>44315</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N41" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>25000</v>
+        <v>15619</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1562</v>
+        <v>976</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44267</v>
+        <v>44321</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
         <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>15400</v>
+        <v>15000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>962</v>
+        <v>938</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44435</v>
+        <v>44658</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="O43" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="P43" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2500</v>
+        <v>1062</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44389</v>
+        <v>44596</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N44" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O44" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44294</v>
+        <v>44306</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O45" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44251</v>
+        <v>44238</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N46" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P46" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44588</v>
+        <v>44274</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N47" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O47" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44330</v>
+        <v>44274</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N48" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O48" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P48" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1500</v>
+        <v>875</v>
       </c>
       <c r="T48" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44601</v>
+        <v>44868</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4280,24 +4280,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>30</v>
       </c>
       <c r="N49" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="O49" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="P49" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1389</v>
+        <v>2500</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44601</v>
+        <v>44301</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N50" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O50" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P50" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44596</v>
+        <v>44301</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1000</v>
+        <v>1188</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44427</v>
+        <v>44267</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N52" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>40000</v>
+        <v>15400</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>2500</v>
+        <v>962</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44705</v>
+        <v>44323</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N53" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P53" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44594</v>
+        <v>44265</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="N54" t="n">
         <v>16000</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44221</v>
+        <v>44244</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,32 +4764,32 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N55" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P55" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1389</v>
+        <v>875</v>
       </c>
       <c r="T55" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44284</v>
+        <v>44649</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N56" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O56" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P56" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1125</v>
+        <v>1250</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44258</v>
+        <v>44649</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,24 +4920,24 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N57" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P57" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44273</v>
+        <v>44425</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O58" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P58" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44603</v>
+        <v>44294</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N59" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1094</v>
+        <v>938</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44650</v>
+        <v>44630</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O60" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P60" t="n">
-        <v>19333</v>
+        <v>17000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1208</v>
+        <v>1062</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44707</v>
+        <v>44595</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="N61" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O61" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>19273</v>
+        <v>16000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1205</v>
+        <v>1000</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44832</v>
+        <v>44650</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5320,24 +5320,24 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N62" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="O62" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="P62" t="n">
-        <v>40000</v>
+        <v>19333</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>2222</v>
+        <v>1208</v>
       </c>
       <c r="T62" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44280</v>
+        <v>44236</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N63" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O63" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P63" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T63" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44427</v>
+        <v>44630</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2500</v>
+        <v>1062</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44235</v>
+        <v>44244</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44277</v>
+        <v>44677</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>1389</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44705</v>
+        <v>44306</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44270</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44253</v>
+        <v>44595</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="N8" t="n">
         <v>16000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44327</v>
+        <v>44253</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44832</v>
+        <v>44321</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2222</v>
+        <v>938</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44270</v>
+        <v>44266</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>18400</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>625</v>
+        <v>1150</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44280</v>
+        <v>44266</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44624</v>
+        <v>44266</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P13" t="n">
-        <v>17467</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>970</v>
+        <v>625</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44319</v>
+        <v>44594</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44432</v>
+        <v>44708</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>45000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>45000</v>
+        <v>19000</v>
       </c>
       <c r="P15" t="n">
-        <v>45000</v>
+        <v>19000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>1188</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44251</v>
+        <v>44238</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44588</v>
+        <v>44705</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1562</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44266</v>
+        <v>44277</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44266</v>
+        <v>44596</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44266</v>
+        <v>44435</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="T20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44637</v>
+        <v>44707</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>19273</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>938</v>
+        <v>1205</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44677</v>
+        <v>44606</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44249</v>
+        <v>44267</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
         <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44606</v>
+        <v>44603</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>625</v>
+        <v>1094</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44320</v>
+        <v>44249</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44708</v>
+        <v>44330</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1188</v>
+        <v>1500</v>
       </c>
       <c r="T26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44594</v>
+        <v>44624</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>17467</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="T27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44707</v>
+        <v>44319</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>19273</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1205</v>
+        <v>938</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44273</v>
+        <v>44389</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>875</v>
+        <v>1875</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44601</v>
+        <v>44832</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="O30" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="P30" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1389</v>
+        <v>2222</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44601</v>
+        <v>44274</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,24 +2840,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2869,7 +2869,7 @@
         <v>1000</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44221</v>
+        <v>44274</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P32" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1389</v>
+        <v>875</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44418</v>
+        <v>44427</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N33" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="O33" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="P33" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1875</v>
+        <v>2500</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44603</v>
+        <v>44235</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N34" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O34" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P34" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1094</v>
+        <v>1562</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44389</v>
+        <v>44601</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3167,17 +3167,17 @@
         <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O35" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1875</v>
+        <v>1389</v>
       </c>
       <c r="T35" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44663</v>
+        <v>44601</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,20 +3244,20 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3269,7 +3269,7 @@
         <v>1000</v>
       </c>
       <c r="T36" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44258</v>
+        <v>44265</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
         <v>16000</v>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44237</v>
+        <v>44301</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N38" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O38" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1562</v>
+        <v>1375</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="N39" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O39" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="P39" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1500</v>
+        <v>1188</v>
       </c>
       <c r="T39" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44284</v>
+        <v>44418</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1125</v>
+        <v>1875</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44315</v>
+        <v>44637</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="N41" t="n">
         <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>15619</v>
+        <v>15000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>976</v>
+        <v>938</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P42" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44658</v>
+        <v>44588</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O43" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P43" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1062</v>
+        <v>1562</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44596</v>
+        <v>44273</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3887,13 +3887,13 @@
         <v>55</v>
       </c>
       <c r="N44" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P44" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44306</v>
+        <v>44237</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O45" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P45" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1375</v>
+        <v>1562</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44238</v>
+        <v>44251</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O46" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44274</v>
+        <v>44326</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44274</v>
+        <v>44327</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N48" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O48" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P48" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44868</v>
+        <v>44315</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N49" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O49" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>40000</v>
+        <v>15619</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>2500</v>
+        <v>976</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44301</v>
+        <v>44280</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N50" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O50" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P50" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1375</v>
+        <v>1250</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44301</v>
+        <v>44650</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N51" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O51" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P51" t="n">
-        <v>19000</v>
+        <v>19333</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1188</v>
+        <v>1208</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44267</v>
+        <v>44425</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P52" t="n">
-        <v>15400</v>
+        <v>40000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>962</v>
+        <v>2500</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44323</v>
+        <v>44432</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>30</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O53" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P53" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T53" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44265</v>
+        <v>44868</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N54" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P54" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44244</v>
+        <v>44294</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N55" t="n">
         <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44649</v>
+        <v>44663</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N56" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44649</v>
+        <v>44284</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P57" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44425</v>
+        <v>44323</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N58" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="P58" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>2500</v>
+        <v>875</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44294</v>
+        <v>44658</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P59" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44630</v>
+        <v>44649</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N60" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O60" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P60" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1062</v>
+        <v>1250</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44595</v>
+        <v>44649</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N61" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P61" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44650</v>
+        <v>44236</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5327,13 +5327,13 @@
         <v>45</v>
       </c>
       <c r="N62" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O62" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P62" t="n">
-        <v>19333</v>
+        <v>25000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1208</v>
+        <v>1562</v>
       </c>
       <c r="T62" t="n">
         <v>16</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44236</v>
+        <v>44258</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,32 +5404,32 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N63" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O63" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P63" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1562</v>
+        <v>889</v>
       </c>
       <c r="T63" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44630</v>
+        <v>44637</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1062</v>
+        <v>938</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44244</v>
+        <v>44658</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T3" t="n">
         <v>16</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44677</v>
+        <v>44601</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1389</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44601</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44306</v>
+        <v>44238</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44270</v>
+        <v>44594</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44595</v>
+        <v>44294</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
         <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44253</v>
+        <v>44427</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44321</v>
+        <v>44677</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44266</v>
+        <v>44320</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>18400</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1150</v>
+        <v>875</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44266</v>
+        <v>44253</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44266</v>
+        <v>44251</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44594</v>
+        <v>44330</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44708</v>
+        <v>44244</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1188</v>
+        <v>875</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44238</v>
+        <v>44588</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44705</v>
+        <v>44265</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44277</v>
+        <v>44707</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>19273</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1205</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44596</v>
+        <v>44249</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N19" t="n">
         <v>16000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44435</v>
+        <v>44306</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2500</v>
+        <v>1375</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44707</v>
+        <v>44596</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2047,13 +2047,13 @@
         <v>55</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>19273</v>
+        <v>16000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1205</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44267</v>
+        <v>44236</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P23" t="n">
-        <v>15400</v>
+        <v>25000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>962</v>
+        <v>1562</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44603</v>
+        <v>44315</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="N24" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>17500</v>
+        <v>15619</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1094</v>
+        <v>976</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44330</v>
+        <v>44258</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1500</v>
+        <v>889</v>
       </c>
       <c r="T26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44624</v>
+        <v>44266</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O27" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P27" t="n">
-        <v>17467</v>
+        <v>18400</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>970</v>
+        <v>1150</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44319</v>
+        <v>44266</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N28" t="n">
         <v>15000</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44389</v>
+        <v>44266</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1875</v>
+        <v>625</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44832</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="O30" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="P30" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2222</v>
+        <v>2500</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44274</v>
+        <v>44321</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N32" t="n">
         <v>14000</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44427</v>
+        <v>44326</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44235</v>
+        <v>44284</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O34" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P34" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1562</v>
+        <v>1125</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44601</v>
+        <v>44323</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,24 +3160,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1389</v>
+        <v>875</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44601</v>
+        <v>44235</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N36" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O36" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3327,13 +3327,13 @@
         <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
         <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44301</v>
+        <v>44277</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N38" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44301</v>
+        <v>44274</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N39" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1188</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44418</v>
+        <v>44274</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3567,13 +3567,13 @@
         <v>40</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1875</v>
+        <v>875</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44637</v>
+        <v>44280</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P41" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44320</v>
+        <v>44649</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O42" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P42" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44588</v>
+        <v>44649</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P43" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44273</v>
+        <v>44868</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O44" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P44" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44237</v>
+        <v>44708</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N45" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O45" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P45" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1562</v>
+        <v>1188</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44251</v>
+        <v>44624</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N46" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P46" t="n">
-        <v>16000</v>
+        <v>17467</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="T46" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N47" t="n">
         <v>15000</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44327</v>
+        <v>44432</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N48" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O48" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="P48" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44315</v>
+        <v>44603</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="N49" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P49" t="n">
-        <v>15619</v>
+        <v>17500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>976</v>
+        <v>1094</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44280</v>
+        <v>44301</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N50" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O50" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P50" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44650</v>
+        <v>44301</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N51" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O51" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P51" t="n">
-        <v>19333</v>
+        <v>19000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1208</v>
+        <v>1188</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44425</v>
+        <v>44705</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N52" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="O52" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="P52" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44432</v>
+        <v>44595</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="N53" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="O53" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44868</v>
+        <v>44221</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4687,29 +4687,29 @@
         <v>30</v>
       </c>
       <c r="N54" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="O54" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="P54" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>2500</v>
+        <v>1389</v>
       </c>
       <c r="T54" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44294</v>
+        <v>44418</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O55" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P55" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>938</v>
+        <v>1875</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44663</v>
+        <v>44319</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44284</v>
+        <v>44270</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N57" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44323</v>
+        <v>44663</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44658</v>
+        <v>44237</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N59" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O59" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P59" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1062</v>
+        <v>1562</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44649</v>
+        <v>44425</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N60" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="O60" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="P60" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44649</v>
+        <v>44832</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,24 +5240,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O61" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P61" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>875</v>
+        <v>2222</v>
       </c>
       <c r="T61" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44236</v>
+        <v>44630</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O62" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="P62" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1562</v>
+        <v>1062</v>
       </c>
       <c r="T62" t="n">
         <v>16</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44258</v>
+        <v>44650</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,20 +5404,20 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N63" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O63" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P63" t="n">
-        <v>16000</v>
+        <v>19333</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>889</v>
+        <v>1208</v>
       </c>
       <c r="T63" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44637</v>
+        <v>44650</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>19333</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>938</v>
+        <v>1208</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44658</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1062</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44601</v>
+        <v>44327</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1389</v>
+        <v>938</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44601</v>
+        <v>44637</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44238</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44594</v>
+        <v>44649</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44294</v>
+        <v>44649</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
         <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44427</v>
+        <v>44663</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44677</v>
+        <v>44320</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44320</v>
+        <v>44588</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1247,13 +1247,13 @@
         <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44253</v>
+        <v>44596</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44330</v>
+        <v>44284</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>1125</v>
       </c>
       <c r="T14" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44244</v>
+        <v>44280</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44588</v>
+        <v>44832</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1562</v>
+        <v>2222</v>
       </c>
       <c r="T16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44265</v>
+        <v>44708</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1188</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44707</v>
+        <v>44294</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>19273</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1205</v>
+        <v>938</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44249</v>
+        <v>44323</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44306</v>
+        <v>44270</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1375</v>
+        <v>625</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44596</v>
+        <v>44236</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N21" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44606</v>
+        <v>44705</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44236</v>
+        <v>44594</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N23" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44315</v>
+        <v>44251</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
         <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>15619</v>
+        <v>16000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44389</v>
+        <v>44601</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2367,17 +2367,17 @@
         <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1875</v>
+        <v>1389</v>
       </c>
       <c r="T25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44258</v>
+        <v>44601</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44266</v>
+        <v>44238</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N27" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P27" t="n">
-        <v>18400</v>
+        <v>14000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1150</v>
+        <v>875</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44266</v>
+        <v>44427</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44266</v>
+        <v>44235</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>625</v>
+        <v>1562</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44435</v>
+        <v>44603</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,24 +2760,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="O30" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="P30" t="n">
-        <v>45000</v>
+        <v>17500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2500</v>
+        <v>1094</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
         <v>14000</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44326</v>
+        <v>44630</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3007,13 +3007,13 @@
         <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44284</v>
+        <v>44244</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3087,13 +3087,13 @@
         <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44323</v>
+        <v>44319</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44235</v>
+        <v>44267</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>25000</v>
+        <v>15400</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1562</v>
+        <v>962</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44267</v>
+        <v>44258</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,20 +3324,20 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O37" t="n">
         <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>962</v>
+        <v>889</v>
       </c>
       <c r="T37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44277</v>
+        <v>44595</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="N38" t="n">
         <v>16000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44274</v>
+        <v>44658</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P39" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44274</v>
+        <v>44330</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>875</v>
+        <v>1500</v>
       </c>
       <c r="T40" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44280</v>
+        <v>44606</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>80</v>
       </c>
       <c r="N41" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O41" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44649</v>
+        <v>44677</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N42" t="n">
         <v>20000</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44649</v>
+        <v>44315</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O43" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>14000</v>
+        <v>15619</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>875</v>
+        <v>976</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44868</v>
+        <v>44266</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N44" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="O44" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="P44" t="n">
-        <v>40000</v>
+        <v>18400</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2500</v>
+        <v>1150</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44708</v>
+        <v>44266</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N45" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1188</v>
+        <v>938</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44624</v>
+        <v>44266</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N46" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>17467</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>970</v>
+        <v>625</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44327</v>
+        <v>44273</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N47" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P47" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44432</v>
+        <v>44221</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>30</v>
       </c>
       <c r="N48" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="O48" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="P48" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>2500</v>
+        <v>1389</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44603</v>
+        <v>44624</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N49" t="n">
         <v>17000</v>
@@ -4293,11 +4293,11 @@
         <v>18000</v>
       </c>
       <c r="P49" t="n">
-        <v>17500</v>
+        <v>17467</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1094</v>
+        <v>970</v>
       </c>
       <c r="T49" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44301</v>
+        <v>44253</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>55</v>
       </c>
       <c r="N50" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O50" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N51" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O51" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P51" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44705</v>
+        <v>44301</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N52" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O52" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P52" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44595</v>
+        <v>44237</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="N53" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P53" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44221</v>
+        <v>44868</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4687,29 +4687,29 @@
         <v>30</v>
       </c>
       <c r="N54" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="O54" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="P54" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1389</v>
+        <v>2500</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44418</v>
+        <v>44265</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N55" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O55" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44319</v>
+        <v>44277</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N56" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44270</v>
+        <v>44432</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,24 +4920,24 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N57" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="P57" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="T57" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44663</v>
+        <v>44425</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N58" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O58" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P58" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44237</v>
+        <v>44418</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N59" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O59" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P59" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1562</v>
+        <v>1875</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44425</v>
+        <v>44249</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="N60" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O60" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P60" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44832</v>
+        <v>44707</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,24 +5240,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N61" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="O61" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="P61" t="n">
-        <v>40000</v>
+        <v>19273</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>2222</v>
+        <v>1205</v>
       </c>
       <c r="T61" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44630</v>
+        <v>44321</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5327,13 +5327,13 @@
         <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O62" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P62" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1062</v>
+        <v>938</v>
       </c>
       <c r="T62" t="n">
         <v>16</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44650</v>
+        <v>44306</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N63" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O63" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P63" t="n">
-        <v>19333</v>
+        <v>22000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1208</v>
+        <v>1375</v>
       </c>
       <c r="T63" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44650</v>
+        <v>44637</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>19333</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1208</v>
+        <v>938</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44658</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>1062</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44327</v>
+        <v>44601</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>938</v>
+        <v>1389</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44637</v>
+        <v>44601</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44238</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T6" t="n">
         <v>16</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44649</v>
+        <v>44594</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44649</v>
+        <v>44294</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44663</v>
+        <v>44427</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44320</v>
+        <v>44677</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44588</v>
+        <v>44320</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1247,13 +1247,13 @@
         <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T11" t="n">
         <v>16</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44596</v>
+        <v>44253</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44389</v>
+        <v>44251</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>16</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44284</v>
+        <v>44330</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1125</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44280</v>
+        <v>44244</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44832</v>
+        <v>44588</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2222</v>
+        <v>1562</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44708</v>
+        <v>44265</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1188</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44294</v>
+        <v>44707</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>19273</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>938</v>
+        <v>1205</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44323</v>
+        <v>44249</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44270</v>
+        <v>44306</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>625</v>
+        <v>1375</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44236</v>
+        <v>44596</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44705</v>
+        <v>44606</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44594</v>
+        <v>44236</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44251</v>
+        <v>44315</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
         <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>15619</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>976</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44601</v>
+        <v>44389</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2367,17 +2367,17 @@
         <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1389</v>
+        <v>1875</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44601</v>
+        <v>44258</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44238</v>
+        <v>44266</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>18400</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>875</v>
+        <v>1150</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44427</v>
+        <v>44266</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N28" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44235</v>
+        <v>44266</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1562</v>
+        <v>625</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44603</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,24 +2760,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="O30" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="P30" t="n">
-        <v>17500</v>
+        <v>45000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1094</v>
+        <v>2500</v>
       </c>
       <c r="T30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44274</v>
+        <v>44321</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N32" t="n">
         <v>14000</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44630</v>
+        <v>44326</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3007,13 +3007,13 @@
         <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1062</v>
+        <v>938</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44244</v>
+        <v>44284</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3087,13 +3087,13 @@
         <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O34" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P34" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44319</v>
+        <v>44323</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44267</v>
+        <v>44235</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>15400</v>
+        <v>25000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>962</v>
+        <v>1562</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44258</v>
+        <v>44267</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,20 +3324,20 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
         <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>889</v>
+        <v>962</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44595</v>
+        <v>44277</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="N38" t="n">
         <v>16000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44658</v>
+        <v>44274</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N39" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44330</v>
+        <v>44274</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1500</v>
+        <v>875</v>
       </c>
       <c r="T40" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44606</v>
+        <v>44280</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>80</v>
       </c>
       <c r="N41" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P41" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44677</v>
+        <v>44649</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N42" t="n">
         <v>20000</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44315</v>
+        <v>44649</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P43" t="n">
-        <v>15619</v>
+        <v>14000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>976</v>
+        <v>875</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44266</v>
+        <v>44868</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="O44" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="P44" t="n">
-        <v>18400</v>
+        <v>40000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1150</v>
+        <v>2500</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44266</v>
+        <v>44708</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44266</v>
+        <v>44624</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>17467</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>625</v>
+        <v>970</v>
       </c>
       <c r="T46" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44273</v>
+        <v>44327</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O47" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44221</v>
+        <v>44432</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>30</v>
       </c>
       <c r="N48" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="O48" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="P48" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1389</v>
+        <v>2500</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44624</v>
+        <v>44603</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N49" t="n">
         <v>17000</v>
@@ -4293,11 +4293,11 @@
         <v>18000</v>
       </c>
       <c r="P49" t="n">
-        <v>17467</v>
+        <v>17500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>970</v>
+        <v>1094</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44253</v>
+        <v>44301</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>55</v>
       </c>
       <c r="N50" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P50" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N51" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O51" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P51" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1375</v>
+        <v>1188</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44301</v>
+        <v>44705</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N52" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O52" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P52" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44237</v>
+        <v>44595</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N53" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O53" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44868</v>
+        <v>44221</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4687,29 +4687,29 @@
         <v>30</v>
       </c>
       <c r="N54" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="O54" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="P54" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>2500</v>
+        <v>1389</v>
       </c>
       <c r="T54" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44265</v>
+        <v>44418</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N55" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O55" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P55" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44277</v>
+        <v>44319</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44432</v>
+        <v>44270</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,24 +4920,24 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N57" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>2500</v>
+        <v>625</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44425</v>
+        <v>44663</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N58" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O58" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44418</v>
+        <v>44237</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N59" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O59" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P59" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1875</v>
+        <v>1562</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44249</v>
+        <v>44425</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="N60" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O60" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P60" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44707</v>
+        <v>44832</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,24 +5240,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="O61" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="P61" t="n">
-        <v>19273</v>
+        <v>40000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1205</v>
+        <v>2222</v>
       </c>
       <c r="T61" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44321</v>
+        <v>44630</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5327,13 +5327,13 @@
         <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O62" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P62" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T62" t="n">
         <v>16</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44306</v>
+        <v>44650</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N63" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O63" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P63" t="n">
-        <v>22000</v>
+        <v>19333</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1375</v>
+        <v>1208</v>
       </c>
       <c r="T63" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44650</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="P2" t="n">
-        <v>19333</v>
+        <v>40000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1208</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
         <v>16</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44624</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="N3" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>45000</v>
+        <v>17467</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>970</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44327</v>
+        <v>44677</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44637</v>
+        <v>44327</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44321</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44649</v>
+        <v>44265</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44649</v>
+        <v>44418</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>875</v>
+        <v>1875</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44663</v>
+        <v>44270</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1087,13 +1087,13 @@
         <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44320</v>
+        <v>44630</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44588</v>
+        <v>44432</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1562</v>
+        <v>2500</v>
       </c>
       <c r="T11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44596</v>
+        <v>44319</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T12" t="n">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44389</v>
+        <v>44330</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
         <v>30000</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1875</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44284</v>
+        <v>44326</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1125</v>
+        <v>938</v>
       </c>
       <c r="T14" t="n">
         <v>16</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44280</v>
+        <v>44253</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44832</v>
+        <v>44237</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2222</v>
+        <v>1562</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44708</v>
+        <v>44236</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1727,13 +1727,13 @@
         <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1188</v>
+        <v>1562</v>
       </c>
       <c r="T17" t="n">
         <v>16</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44294</v>
+        <v>44267</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
         <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44323</v>
+        <v>44603</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>875</v>
+        <v>1094</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44270</v>
+        <v>44323</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44236</v>
+        <v>44596</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44705</v>
+        <v>44435</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="P22" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="T22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44594</v>
+        <v>44273</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T23" t="n">
         <v>16</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44601</v>
+        <v>44594</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44601</v>
+        <v>44427</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44238</v>
+        <v>44277</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44427</v>
+        <v>44221</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="O28" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2500</v>
+        <v>1389</v>
       </c>
       <c r="T28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44235</v>
+        <v>44284</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1562</v>
+        <v>1125</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44603</v>
+        <v>44708</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N30" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O30" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P30" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1094</v>
+        <v>1188</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44274</v>
+        <v>44258</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,11 +2840,11 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N31" t="n">
         <v>16000</v>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44274</v>
+        <v>44868</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O32" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P32" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44630</v>
+        <v>44238</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N33" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P33" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1062</v>
+        <v>875</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>875</v>
+        <v>1375</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44319</v>
+        <v>44301</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44267</v>
+        <v>44649</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P36" t="n">
-        <v>15400</v>
+        <v>20000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>962</v>
+        <v>1250</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44258</v>
+        <v>44649</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44595</v>
+        <v>44588</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P38" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44658</v>
+        <v>44601</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O39" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1062</v>
+        <v>1389</v>
       </c>
       <c r="T39" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44330</v>
+        <v>44601</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44677</v>
+        <v>44315</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="N42" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>20000</v>
+        <v>15619</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1250</v>
+        <v>976</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44315</v>
+        <v>44306</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P43" t="n">
-        <v>15619</v>
+        <v>22000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>976</v>
+        <v>1375</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44266</v>
+        <v>44294</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N44" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>18400</v>
+        <v>15000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1150</v>
+        <v>938</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44266</v>
+        <v>44244</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44266</v>
+        <v>44280</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44273</v>
+        <v>44707</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4127,13 +4127,13 @@
         <v>55</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O47" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P47" t="n">
-        <v>14000</v>
+        <v>19273</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>875</v>
+        <v>1205</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44221</v>
+        <v>44705</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,32 +4204,32 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N48" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O48" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P48" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1389</v>
+        <v>1250</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44624</v>
+        <v>44249</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N49" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>17467</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44253</v>
+        <v>44832</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N50" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P50" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>2222</v>
       </c>
       <c r="T50" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44301</v>
+        <v>44274</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N51" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44301</v>
+        <v>44274</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N52" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P52" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1188</v>
+        <v>875</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44237</v>
+        <v>44663</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N53" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O53" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44868</v>
+        <v>44266</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N54" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="O54" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="P54" t="n">
-        <v>40000</v>
+        <v>18400</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>2500</v>
+        <v>1150</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N55" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O55" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44277</v>
+        <v>44266</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44432</v>
+        <v>44658</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,24 +4920,24 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N57" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="O57" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="P57" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>2500</v>
+        <v>1062</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44425</v>
+        <v>44637</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N58" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O58" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>2500</v>
+        <v>938</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44418</v>
+        <v>44650</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N59" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="O59" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P59" t="n">
-        <v>30000</v>
+        <v>19333</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1875</v>
+        <v>1208</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44249</v>
+        <v>44235</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N60" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O60" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P60" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44707</v>
+        <v>44320</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P61" t="n">
-        <v>19273</v>
+        <v>14000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1205</v>
+        <v>875</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44321</v>
+        <v>44251</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N62" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O62" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P62" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T62" t="n">
         <v>16</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44306</v>
+        <v>44595</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="N63" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O63" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P63" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
         <v>16</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44435</v>
+        <v>44952</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="O22" t="n">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="P22" t="n">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2500</v>
+        <v>1778</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44273</v>
+        <v>44435</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44389</v>
+        <v>44273</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1875</v>
+        <v>875</v>
       </c>
       <c r="T24" t="n">
         <v>16</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44594</v>
+        <v>44389</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44427</v>
+        <v>44594</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N26" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44277</v>
+        <v>44427</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44221</v>
+        <v>44277</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N28" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44284</v>
+        <v>44221</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1125</v>
+        <v>1389</v>
       </c>
       <c r="T29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44708</v>
+        <v>44284</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O30" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P30" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1188</v>
+        <v>1125</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44258</v>
+        <v>44708</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>889</v>
+        <v>1188</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44868</v>
+        <v>44258</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N32" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2500</v>
+        <v>889</v>
       </c>
       <c r="T32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44238</v>
+        <v>44868</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O33" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P33" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44301</v>
+        <v>44238</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N35" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O35" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44649</v>
+        <v>44301</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N36" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O36" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P36" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44588</v>
+        <v>44649</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P38" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44601</v>
+        <v>44588</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
         <v>25000</v>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O40" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P40" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44606</v>
+        <v>44601</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>80</v>
       </c>
       <c r="N41" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P41" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44315</v>
+        <v>44606</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P42" t="n">
-        <v>15619</v>
+        <v>10000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>976</v>
+        <v>625</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N43" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O43" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>22000</v>
+        <v>15619</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1375</v>
+        <v>976</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44294</v>
+        <v>44306</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P44" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44244</v>
+        <v>44294</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N45" t="n">
         <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P45" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44280</v>
+        <v>44244</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P46" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44707</v>
+        <v>44280</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N47" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O47" t="n">
         <v>20000</v>
       </c>
       <c r="P47" t="n">
-        <v>19273</v>
+        <v>20000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1205</v>
+        <v>1250</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44705</v>
+        <v>44707</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N48" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O48" t="n">
         <v>20000</v>
       </c>
       <c r="P48" t="n">
-        <v>20000</v>
+        <v>19273</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1250</v>
+        <v>1205</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44249</v>
+        <v>44705</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44832</v>
+        <v>44249</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N50" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O50" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>2222</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44274</v>
+        <v>44832</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1000</v>
+        <v>2222</v>
       </c>
       <c r="T51" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O52" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44663</v>
+        <v>44274</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N53" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P53" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44266</v>
+        <v>44663</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N54" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O54" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N55" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P55" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44658</v>
+        <v>44266</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N57" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44637</v>
+        <v>44658</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N58" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P58" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44650</v>
+        <v>44637</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N59" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O59" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P59" t="n">
-        <v>19333</v>
+        <v>15000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1208</v>
+        <v>938</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44235</v>
+        <v>44650</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N60" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O60" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P60" t="n">
-        <v>25000</v>
+        <v>19333</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1562</v>
+        <v>1208</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44320</v>
+        <v>44235</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O61" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P61" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44251</v>
+        <v>44320</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N62" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O62" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P62" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T62" t="n">
         <v>16</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44595</v>
+        <v>44251</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="N63" t="n">
         <v>16000</v>
@@ -5429,6 +5429,86 @@
         <v>1000</v>
       </c>
       <c r="T63" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>115</v>
+      </c>
+      <c r="N64" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O64" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P64" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T64" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44649</v>
+        <v>44957</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,20 +3324,20 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N37" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1250</v>
+        <v>1667</v>
       </c>
       <c r="T37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O38" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P38" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44588</v>
+        <v>44649</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P39" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44601</v>
+        <v>44588</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,11 +3560,11 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
         <v>25000</v>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O41" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P41" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44606</v>
+        <v>44601</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>80</v>
       </c>
       <c r="N42" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O42" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P42" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44315</v>
+        <v>44606</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>15619</v>
+        <v>10000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>976</v>
+        <v>625</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N44" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O44" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>22000</v>
+        <v>15619</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1375</v>
+        <v>976</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44294</v>
+        <v>44306</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O45" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44244</v>
+        <v>44294</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N46" t="n">
         <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44280</v>
+        <v>44244</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N47" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P47" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44707</v>
+        <v>44280</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N48" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O48" t="n">
         <v>20000</v>
       </c>
       <c r="P48" t="n">
-        <v>19273</v>
+        <v>20000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1205</v>
+        <v>1250</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44705</v>
+        <v>44707</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N49" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O49" t="n">
         <v>20000</v>
       </c>
       <c r="P49" t="n">
-        <v>20000</v>
+        <v>19273</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1250</v>
+        <v>1205</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44249</v>
+        <v>44705</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N50" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P50" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44832</v>
+        <v>44249</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N51" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>2222</v>
+        <v>1000</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44274</v>
+        <v>44832</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,20 +4524,20 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N52" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P52" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>2222</v>
       </c>
       <c r="T52" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O53" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44663</v>
+        <v>44274</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N54" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P54" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44266</v>
+        <v>44663</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N55" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O55" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P56" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N57" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P57" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44658</v>
+        <v>44266</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N58" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44637</v>
+        <v>44658</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N59" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O59" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P59" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44650</v>
+        <v>44637</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N60" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O60" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>19333</v>
+        <v>15000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1208</v>
+        <v>938</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44235</v>
+        <v>44650</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N61" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O61" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P61" t="n">
-        <v>25000</v>
+        <v>19333</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1562</v>
+        <v>1208</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44320</v>
+        <v>44235</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N62" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O62" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P62" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T62" t="n">
         <v>16</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44251</v>
+        <v>44320</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N63" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O63" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P63" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T63" t="n">
         <v>16</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44595</v>
+        <v>44251</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="N64" t="n">
         <v>16000</v>
@@ -5509,6 +5509,86 @@
         <v>1000</v>
       </c>
       <c r="T64" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>115</v>
+      </c>
+      <c r="N65" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O65" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P65" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T65" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44963</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44624</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="P3" t="n">
-        <v>17467</v>
+        <v>40000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>970</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44677</v>
+        <v>44624</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>17467</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>970</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44327</v>
+        <v>44677</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>16</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44265</v>
+        <v>44321</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T7" t="n">
         <v>16</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44418</v>
+        <v>44265</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44270</v>
+        <v>44418</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>625</v>
+        <v>1875</v>
       </c>
       <c r="T9" t="n">
         <v>16</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44630</v>
+        <v>44270</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T10" t="n">
         <v>16</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44432</v>
+        <v>44630</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2500</v>
+        <v>1062</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44319</v>
+        <v>44432</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44330</v>
+        <v>44319</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T13" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44326</v>
+        <v>44330</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>938</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44253</v>
+        <v>44326</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T15" t="n">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44237</v>
+        <v>44253</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1562</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>16</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
         <v>25000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44267</v>
+        <v>44236</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>15400</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>962</v>
+        <v>1562</v>
       </c>
       <c r="T18" t="n">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44603</v>
+        <v>44267</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>17500</v>
+        <v>15400</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1094</v>
+        <v>962</v>
       </c>
       <c r="T19" t="n">
         <v>16</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44323</v>
+        <v>44603</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>875</v>
+        <v>1094</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44596</v>
+        <v>44323</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P21" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44952</v>
+        <v>44596</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N22" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1778</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44435</v>
+        <v>44952</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="O23" t="n">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="P23" t="n">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2500</v>
+        <v>1778</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44273</v>
+        <v>44435</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44389</v>
+        <v>44273</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1875</v>
+        <v>875</v>
       </c>
       <c r="T25" t="n">
         <v>16</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44594</v>
+        <v>44389</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44427</v>
+        <v>44594</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N27" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44277</v>
+        <v>44427</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N28" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P28" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44221</v>
+        <v>44277</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44284</v>
+        <v>44221</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O30" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1125</v>
+        <v>1389</v>
       </c>
       <c r="T30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44708</v>
+        <v>44284</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O31" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P31" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1188</v>
+        <v>1125</v>
       </c>
       <c r="T31" t="n">
         <v>16</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44258</v>
+        <v>44708</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>889</v>
+        <v>1188</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44868</v>
+        <v>44258</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N33" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2500</v>
+        <v>889</v>
       </c>
       <c r="T33" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44238</v>
+        <v>44868</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O34" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P34" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T34" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44301</v>
+        <v>44238</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N35" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P35" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N36" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O36" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44957</v>
+        <v>44301</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,20 +3324,20 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1667</v>
+        <v>1188</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44649</v>
+        <v>44957</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,20 +3404,20 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1250</v>
+        <v>1667</v>
       </c>
       <c r="T38" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O39" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P39" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44588</v>
+        <v>44649</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44601</v>
+        <v>44588</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,11 +3640,11 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N41" t="n">
         <v>25000</v>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O42" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P42" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44606</v>
+        <v>44601</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>80</v>
       </c>
       <c r="N43" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O43" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P43" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44315</v>
+        <v>44606</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N44" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P44" t="n">
-        <v>15619</v>
+        <v>10000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>976</v>
+        <v>625</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N45" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P45" t="n">
-        <v>22000</v>
+        <v>15619</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1375</v>
+        <v>976</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44294</v>
+        <v>44306</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P46" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44244</v>
+        <v>44294</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N47" t="n">
         <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44280</v>
+        <v>44244</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N48" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O48" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P48" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44707</v>
+        <v>44280</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N49" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O49" t="n">
         <v>20000</v>
       </c>
       <c r="P49" t="n">
-        <v>19273</v>
+        <v>20000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1205</v>
+        <v>1250</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44705</v>
+        <v>44707</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N50" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O50" t="n">
         <v>20000</v>
       </c>
       <c r="P50" t="n">
-        <v>20000</v>
+        <v>19273</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1250</v>
+        <v>1205</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44249</v>
+        <v>44705</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44832</v>
+        <v>44249</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4520,24 +4520,24 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N52" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O52" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>2222</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44274</v>
+        <v>44832</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,20 +4604,20 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N53" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P53" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1000</v>
+        <v>2222</v>
       </c>
       <c r="T53" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N54" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O54" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44663</v>
+        <v>44274</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N55" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P55" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44266</v>
+        <v>44663</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N56" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N57" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P57" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44658</v>
+        <v>44266</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N59" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44637</v>
+        <v>44658</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P60" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44650</v>
+        <v>44637</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N61" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O61" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>19333</v>
+        <v>15000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1208</v>
+        <v>938</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44235</v>
+        <v>44650</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N62" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O62" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P62" t="n">
-        <v>25000</v>
+        <v>19333</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1562</v>
+        <v>1208</v>
       </c>
       <c r="T62" t="n">
         <v>16</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44320</v>
+        <v>44235</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N63" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O63" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P63" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T63" t="n">
         <v>16</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44251</v>
+        <v>44320</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N64" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O64" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P64" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T64" t="n">
         <v>16</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44595</v>
+        <v>44251</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="N65" t="n">
         <v>16000</v>
@@ -5589,6 +5589,86 @@
         <v>1000</v>
       </c>
       <c r="T65" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>115</v>
+      </c>
+      <c r="N66" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O66" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P66" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T66" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44267</v>
+        <v>44965</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>15400</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>962</v>
+        <v>1667</v>
       </c>
       <c r="T19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44603</v>
+        <v>44267</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>17500</v>
+        <v>15400</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1094</v>
+        <v>962</v>
       </c>
       <c r="T20" t="n">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44323</v>
+        <v>44603</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O21" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>875</v>
+        <v>1094</v>
       </c>
       <c r="T21" t="n">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44596</v>
+        <v>44323</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T22" t="n">
         <v>16</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44952</v>
+        <v>44596</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N23" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1778</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44435</v>
+        <v>44952</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="O24" t="n">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="P24" t="n">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2500</v>
+        <v>1778</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44273</v>
+        <v>44435</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="O25" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="P25" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44389</v>
+        <v>44273</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1875</v>
+        <v>875</v>
       </c>
       <c r="T26" t="n">
         <v>16</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44594</v>
+        <v>44389</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T27" t="n">
         <v>16</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44427</v>
+        <v>44594</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N28" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44277</v>
+        <v>44427</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N29" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P29" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44221</v>
+        <v>44277</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N30" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44284</v>
+        <v>44221</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O31" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P31" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1125</v>
+        <v>1389</v>
       </c>
       <c r="T31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44708</v>
+        <v>44284</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O32" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1188</v>
+        <v>1125</v>
       </c>
       <c r="T32" t="n">
         <v>16</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44258</v>
+        <v>44708</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>889</v>
+        <v>1188</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44868</v>
+        <v>44258</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N34" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2500</v>
+        <v>889</v>
       </c>
       <c r="T34" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44238</v>
+        <v>44868</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O35" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P35" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T35" t="n">
         <v>16</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44301</v>
+        <v>44238</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N36" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P36" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N37" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O37" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44957</v>
+        <v>44301</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,20 +3404,20 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1667</v>
+        <v>1188</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44649</v>
+        <v>44957</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,20 +3484,20 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O39" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P39" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1250</v>
+        <v>1667</v>
       </c>
       <c r="T39" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O40" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P40" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44588</v>
+        <v>44649</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P41" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44601</v>
+        <v>44588</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,11 +3720,11 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N42" t="n">
         <v>25000</v>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O43" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P43" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44606</v>
+        <v>44601</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,24 +3880,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>80</v>
       </c>
       <c r="N44" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O44" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P44" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44315</v>
+        <v>44606</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O45" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P45" t="n">
-        <v>15619</v>
+        <v>10000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>976</v>
+        <v>625</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N46" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>22000</v>
+        <v>15619</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1375</v>
+        <v>976</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44294</v>
+        <v>44306</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P47" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44244</v>
+        <v>44294</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N48" t="n">
         <v>14000</v>
       </c>
       <c r="O48" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44280</v>
+        <v>44244</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N49" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P49" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44707</v>
+        <v>44280</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N50" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O50" t="n">
         <v>20000</v>
       </c>
       <c r="P50" t="n">
-        <v>19273</v>
+        <v>20000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1205</v>
+        <v>1250</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44705</v>
+        <v>44707</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N51" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O51" t="n">
         <v>20000</v>
       </c>
       <c r="P51" t="n">
-        <v>20000</v>
+        <v>19273</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1250</v>
+        <v>1205</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44249</v>
+        <v>44705</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N52" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P52" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44832</v>
+        <v>44964</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N53" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="O53" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="P53" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>2222</v>
+        <v>1667</v>
       </c>
       <c r="T53" t="n">
         <v>18</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44274</v>
+        <v>44249</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,11 +4680,11 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="N54" t="n">
         <v>16000</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44274</v>
+        <v>44832</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,24 +4760,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O55" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P55" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>875</v>
+        <v>2222</v>
       </c>
       <c r="T55" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44663</v>
+        <v>44274</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,11 +4840,11 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N56" t="n">
         <v>16000</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44266</v>
+        <v>44274</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N57" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P57" t="n">
-        <v>18400</v>
+        <v>14000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1150</v>
+        <v>875</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44266</v>
+        <v>44663</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N58" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>18400</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>625</v>
+        <v>1150</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44658</v>
+        <v>44266</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N60" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O60" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1062</v>
+        <v>938</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44637</v>
+        <v>44266</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P61" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44650</v>
+        <v>44658</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N62" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O62" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P62" t="n">
-        <v>19333</v>
+        <v>17000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1208</v>
+        <v>1062</v>
       </c>
       <c r="T62" t="n">
         <v>16</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44235</v>
+        <v>44637</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N63" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O63" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1562</v>
+        <v>938</v>
       </c>
       <c r="T63" t="n">
         <v>16</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44320</v>
+        <v>44650</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N64" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O64" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P64" t="n">
-        <v>14000</v>
+        <v>19333</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>875</v>
+        <v>1208</v>
       </c>
       <c r="T64" t="n">
         <v>16</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44251</v>
+        <v>44235</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5567,13 +5567,13 @@
         <v>55</v>
       </c>
       <c r="N65" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O65" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P65" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1000</v>
+        <v>1562</v>
       </c>
       <c r="T65" t="n">
         <v>16</v>
@@ -5607,68 +5607,228 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
+        <v>44320</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>50</v>
+      </c>
+      <c r="N66" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O66" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P66" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S66" t="n">
+        <v>875</v>
+      </c>
+      <c r="T66" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>44251</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>55</v>
+      </c>
+      <c r="N67" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O67" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P67" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T67" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
         <v>44595</v>
       </c>
-      <c r="E66" t="n">
-        <v>9</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>100107</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>100107011</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="E68" t="n">
+        <v>9</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="M68" t="n">
         <v>115</v>
       </c>
-      <c r="N66" t="n">
+      <c r="N68" t="n">
         <v>16000</v>
       </c>
-      <c r="O66" t="n">
+      <c r="O68" t="n">
         <v>16000</v>
       </c>
-      <c r="P66" t="n">
+      <c r="P68" t="n">
         <v>16000</v>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>$/caja 16 kilos</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Provincia de Los Andes</t>
-        </is>
-      </c>
-      <c r="S66" t="n">
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S68" t="n">
         <v>1000</v>
       </c>
-      <c r="T66" t="n">
+      <c r="T68" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44258</v>
+        <v>44966</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>889</v>
+        <v>1222</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44868</v>
+        <v>44258</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N35" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>2500</v>
+        <v>889</v>
       </c>
       <c r="T35" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44238</v>
+        <v>44868</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O36" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P36" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T36" t="n">
         <v>16</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44301</v>
+        <v>44238</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N37" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N38" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O38" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44957</v>
+        <v>44301</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,20 +3484,20 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N39" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O39" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="P39" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1667</v>
+        <v>1188</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44649</v>
+        <v>44957</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1250</v>
+        <v>1667</v>
       </c>
       <c r="T40" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O41" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P41" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44588</v>
+        <v>44649</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P42" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44601</v>
+        <v>44588</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,11 +3800,11 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
         <v>25000</v>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O44" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P44" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44606</v>
+        <v>44601</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>80</v>
       </c>
       <c r="N45" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O45" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P45" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44315</v>
+        <v>44606</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N46" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>15619</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>976</v>
+        <v>625</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N47" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O47" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>22000</v>
+        <v>15619</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1375</v>
+        <v>976</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44294</v>
+        <v>44306</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N48" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P48" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44244</v>
+        <v>44294</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N49" t="n">
         <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44280</v>
+        <v>44244</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N50" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P50" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44707</v>
+        <v>44280</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N51" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O51" t="n">
         <v>20000</v>
       </c>
       <c r="P51" t="n">
-        <v>19273</v>
+        <v>20000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1205</v>
+        <v>1250</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44705</v>
+        <v>44707</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N52" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O52" t="n">
         <v>20000</v>
       </c>
       <c r="P52" t="n">
-        <v>20000</v>
+        <v>19273</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1250</v>
+        <v>1205</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44964</v>
+        <v>44705</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N53" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O53" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P53" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1667</v>
+        <v>1250</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44249</v>
+        <v>44964</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,24 +4680,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N54" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P54" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="T54" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44832</v>
+        <v>44249</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,24 +4760,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N55" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O55" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>2222</v>
+        <v>1000</v>
       </c>
       <c r="T55" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44274</v>
+        <v>44832</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,20 +4844,20 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1000</v>
+        <v>2222</v>
       </c>
       <c r="T56" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44663</v>
+        <v>44274</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N58" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P58" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44266</v>
+        <v>44663</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N59" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O59" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N60" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P60" t="n">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>938</v>
+        <v>1150</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O61" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44658</v>
+        <v>44266</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N62" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T62" t="n">
         <v>16</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44637</v>
+        <v>44658</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P63" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T63" t="n">
         <v>16</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44650</v>
+        <v>44637</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N64" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O64" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P64" t="n">
-        <v>19333</v>
+        <v>15000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1208</v>
+        <v>938</v>
       </c>
       <c r="T64" t="n">
         <v>16</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44235</v>
+        <v>44650</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N65" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O65" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P65" t="n">
-        <v>25000</v>
+        <v>19333</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1562</v>
+        <v>1208</v>
       </c>
       <c r="T65" t="n">
         <v>16</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44320</v>
+        <v>44235</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N66" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O66" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P66" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>875</v>
+        <v>1562</v>
       </c>
       <c r="T66" t="n">
         <v>16</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44251</v>
+        <v>44320</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N67" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O67" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P67" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T67" t="n">
         <v>16</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44595</v>
+        <v>44251</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="N68" t="n">
         <v>16000</v>
@@ -5829,6 +5829,86 @@
         <v>1000</v>
       </c>
       <c r="T68" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="E69" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>115</v>
+      </c>
+      <c r="N69" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O69" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P69" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T69" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44389</v>
+        <v>44967</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1875</v>
+        <v>1389</v>
       </c>
       <c r="T27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44594</v>
+        <v>44389</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P28" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T28" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44427</v>
+        <v>44594</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N29" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O29" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
         <v>16</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44277</v>
+        <v>44427</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T30" t="n">
         <v>16</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44221</v>
+        <v>44277</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N31" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44284</v>
+        <v>44221</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1125</v>
+        <v>1389</v>
       </c>
       <c r="T32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44708</v>
+        <v>44284</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O33" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P33" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1188</v>
+        <v>1125</v>
       </c>
       <c r="T33" t="n">
         <v>16</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44966</v>
+        <v>44708</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1222</v>
+        <v>1188</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44258</v>
+        <v>44966</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>889</v>
+        <v>1222</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44868</v>
+        <v>44258</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,20 +3244,20 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N36" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2500</v>
+        <v>889</v>
       </c>
       <c r="T36" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44238</v>
+        <v>44868</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>875</v>
+        <v>2500</v>
       </c>
       <c r="T37" t="n">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44301</v>
+        <v>44238</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N38" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P38" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1375</v>
+        <v>875</v>
       </c>
       <c r="T38" t="n">
         <v>16</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N39" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O39" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P39" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1188</v>
+        <v>1375</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44957</v>
+        <v>44301</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1667</v>
+        <v>1188</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44649</v>
+        <v>44957</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N41" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O41" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P41" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1250</v>
+        <v>1667</v>
       </c>
       <c r="T41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O42" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P42" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>875</v>
+        <v>1250</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44588</v>
+        <v>44649</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P43" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1562</v>
+        <v>875</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44601</v>
+        <v>44588</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,11 +3880,11 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N44" t="n">
         <v>25000</v>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1389</v>
+        <v>1562</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O45" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P45" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44606</v>
+        <v>44601</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>80</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T46" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44315</v>
+        <v>44606</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="N47" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>15619</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>976</v>
+        <v>625</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N48" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O48" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>22000</v>
+        <v>15619</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1375</v>
+        <v>976</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44294</v>
+        <v>44306</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P49" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44244</v>
+        <v>44294</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N50" t="n">
         <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44280</v>
+        <v>44244</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N51" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P51" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="T51" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44707</v>
+        <v>44280</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N52" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O52" t="n">
         <v>20000</v>
       </c>
       <c r="P52" t="n">
-        <v>19273</v>
+        <v>20000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1205</v>
+        <v>1250</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44705</v>
+        <v>44707</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N53" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O53" t="n">
         <v>20000</v>
       </c>
       <c r="P53" t="n">
-        <v>20000</v>
+        <v>19273</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1250</v>
+        <v>1205</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44964</v>
+        <v>44705</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,24 +4680,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N54" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O54" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P54" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1667</v>
+        <v>1250</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44249</v>
+        <v>44964</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,24 +4760,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N55" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O55" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P55" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="T55" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44832</v>
+        <v>44249</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,24 +4840,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N56" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>2222</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44274</v>
+        <v>44832</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4924,20 +4924,20 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N57" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="P57" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1000</v>
+        <v>2222</v>
       </c>
       <c r="T57" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44663</v>
+        <v>44274</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N59" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P59" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44266</v>
+        <v>44663</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N60" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O60" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P60" t="n">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O61" 